--- a/Modelo3/ronda_0.xlsx
+++ b/Modelo3/ronda_0.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Proyecto_Integrador\Modelo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C599A662-2ED2-4A4E-B97D-F59DABA41756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE055BC0-0AF5-4F17-BC69-FAB349388369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Selección Top Modelos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$301</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="489">
   <si>
     <t>parameters</t>
   </si>
@@ -1701,12 +1702,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1737,7 +1744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1746,12 +1753,26 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEBF1DE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2049,10 +2070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,7 +2144,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>270</v>
       </c>
@@ -2169,11 +2191,11 @@
         <v>21</v>
       </c>
       <c r="P2" s="3">
-        <f>ABS(D2-J2)</f>
+        <f t="shared" ref="P2:P29" si="0">ABS(D2-J2)</f>
         <v>0.10579257717655222</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>50</v>
       </c>
@@ -2220,11 +2242,11 @@
         <v>51</v>
       </c>
       <c r="P3" s="3">
-        <f>ABS(D3-J3)</f>
+        <f t="shared" si="0"/>
         <v>0.10648629899410345</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>68</v>
       </c>
@@ -2271,11 +2293,11 @@
         <v>150</v>
       </c>
       <c r="P4" s="3">
-        <f>ABS(D4-J4)</f>
+        <f t="shared" si="0"/>
         <v>0.10891432535553247</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>224</v>
       </c>
@@ -2322,11 +2344,11 @@
         <v>155</v>
       </c>
       <c r="P5" s="3">
-        <f>ABS(D5-J5)</f>
+        <f t="shared" si="0"/>
         <v>0.10937680656723314</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -2373,11 +2395,11 @@
         <v>92</v>
       </c>
       <c r="P6" s="3">
-        <f>ABS(D6-J6)</f>
+        <f t="shared" si="0"/>
         <v>0.11007052838478426</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>123</v>
       </c>
@@ -2424,11 +2446,11 @@
         <v>241</v>
       </c>
       <c r="P7" s="3">
-        <f>ABS(D7-J7)</f>
+        <f t="shared" si="0"/>
         <v>9.8387058525511217E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>216</v>
       </c>
@@ -2475,11 +2497,11 @@
         <v>125</v>
       </c>
       <c r="P8" s="3">
-        <f>ABS(D8-J8)</f>
+        <f t="shared" si="0"/>
         <v>0.11007052838478437</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>171</v>
       </c>
@@ -2526,11 +2548,11 @@
         <v>83</v>
       </c>
       <c r="P9" s="3">
-        <f>ABS(D9-J9)</f>
+        <f t="shared" si="0"/>
         <v>0.11030176899063471</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>86</v>
       </c>
@@ -2577,11 +2599,11 @@
         <v>92</v>
       </c>
       <c r="P10" s="3">
-        <f>ABS(D10-J10)</f>
+        <f t="shared" si="0"/>
         <v>0.1107642502023356</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>24</v>
       </c>
@@ -2628,11 +2650,11 @@
         <v>71</v>
       </c>
       <c r="P11" s="3">
-        <f>ABS(D11-J11)</f>
+        <f t="shared" si="0"/>
         <v>0.11099549080818594</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>228</v>
       </c>
@@ -2679,11 +2701,11 @@
         <v>197</v>
       </c>
       <c r="P12" s="3">
-        <f>ABS(D12-J12)</f>
+        <f t="shared" si="0"/>
         <v>0.11157359232281183</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>158</v>
       </c>
@@ -2730,11 +2752,11 @@
         <v>25</v>
       </c>
       <c r="P13" s="3">
-        <f>ABS(D13-J13)</f>
+        <f t="shared" si="0"/>
         <v>0.11180483292866228</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>72</v>
       </c>
@@ -2781,11 +2803,11 @@
         <v>160</v>
       </c>
       <c r="P14" s="3">
-        <f>ABS(D14-J14)</f>
+        <f t="shared" si="0"/>
         <v>8.8275308989248957E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>27</v>
       </c>
@@ -2832,11 +2854,11 @@
         <v>65</v>
       </c>
       <c r="P15" s="3">
-        <f>ABS(D15-J15)</f>
+        <f t="shared" si="0"/>
         <v>0.11203607353451261</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>254</v>
       </c>
@@ -2883,11 +2905,11 @@
         <v>150</v>
       </c>
       <c r="P16" s="3">
-        <f>ABS(D16-J16)</f>
+        <f t="shared" si="0"/>
         <v>0.11203607353451261</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>84</v>
       </c>
@@ -2934,11 +2956,11 @@
         <v>51</v>
       </c>
       <c r="P17" s="3">
-        <f>ABS(D17-J17)</f>
+        <f t="shared" si="0"/>
         <v>0.11261417504913862</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>90</v>
       </c>
@@ -2985,11 +3007,11 @@
         <v>33</v>
       </c>
       <c r="P18" s="3">
-        <f>ABS(D18-J18)</f>
+        <f t="shared" si="0"/>
         <v>9.4411886619539809E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>213</v>
       </c>
@@ -3036,11 +3058,11 @@
         <v>74</v>
       </c>
       <c r="P19" s="3">
-        <f>ABS(D19-J19)</f>
+        <f t="shared" si="0"/>
         <v>0.11330789686668974</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -3087,11 +3109,11 @@
         <v>25</v>
       </c>
       <c r="P20" s="3">
-        <f>ABS(D20-J20)</f>
+        <f t="shared" si="0"/>
         <v>0.1136547577754653</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>261</v>
       </c>
@@ -3138,11 +3160,11 @@
         <v>86</v>
       </c>
       <c r="P21" s="3">
-        <f>ABS(D21-J21)</f>
+        <f t="shared" si="0"/>
         <v>0.11377037807839063</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>294</v>
       </c>
@@ -3189,11 +3211,11 @@
         <v>482</v>
       </c>
       <c r="P22" s="3">
-        <f>ABS(D22-J22)</f>
+        <f t="shared" si="0"/>
         <v>0.11400161868424097</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>66</v>
       </c>
@@ -3240,11 +3262,11 @@
         <v>114</v>
       </c>
       <c r="P23" s="3">
-        <f>ABS(D23-J23)</f>
+        <f t="shared" si="0"/>
         <v>0.11393345406803157</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>198</v>
       </c>
@@ -3291,11 +3313,11 @@
         <v>350</v>
       </c>
       <c r="P24" s="3">
-        <f>ABS(D24-J24)</f>
+        <f t="shared" si="0"/>
         <v>0.11434847959301653</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>41</v>
       </c>
@@ -3342,11 +3364,11 @@
         <v>25</v>
       </c>
       <c r="P25" s="3">
-        <f>ABS(D25-J25)</f>
+        <f t="shared" si="0"/>
         <v>0.11481096080471731</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>107</v>
       </c>
@@ -3393,11 +3415,11 @@
         <v>182</v>
       </c>
       <c r="P26" s="3">
-        <f>ABS(D26-J26)</f>
+        <f t="shared" si="0"/>
         <v>0.11481096080471731</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>299</v>
       </c>
@@ -3444,11 +3466,11 @@
         <v>182</v>
       </c>
       <c r="P27" s="3">
-        <f>ABS(D27-J27)</f>
+        <f t="shared" si="0"/>
         <v>0.11481096080471731</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>249</v>
       </c>
@@ -3495,11 +3517,11 @@
         <v>209</v>
       </c>
       <c r="P28" s="3">
-        <f>ABS(D28-J28)</f>
+        <f t="shared" si="0"/>
         <v>0.11504220141056765</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45</v>
       </c>
@@ -3546,62 +3568,62 @@
         <v>114</v>
       </c>
       <c r="P29" s="3">
-        <f>ABS(D29-J29)</f>
+        <f t="shared" si="0"/>
         <v>0.11515782171349287</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="A30" s="6">
+        <v>277</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="3">
-        <v>0.90872453266120568</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="5">
+        <v>0.89138311279143023</v>
+      </c>
+      <c r="E30" s="5">
         <v>0.79528985507246375</v>
       </c>
-      <c r="F30" s="3">
-        <v>0.86547085201793716</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.69927536231884058</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.77354709418837675</v>
-      </c>
-      <c r="I30" t="s">
-        <v>211</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0.88484217828650713</v>
-      </c>
-      <c r="K30" s="3">
+      <c r="F30" s="5">
+        <v>0.8590308370044053</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.70652173913043481</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.77534791252485091</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.86749913284772795</v>
+      </c>
+      <c r="K30" s="5">
         <v>0.81182795698924726</v>
       </c>
-      <c r="L30" s="3">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0.74193548387096775</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0.79768786127167635</v>
-      </c>
-      <c r="O30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P30" s="3">
-        <f>ABS(D30-J30)</f>
-        <v>2.3882354374698544E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L30" s="5">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" ref="P30:P93" si="1">ABS(D30-J30)</f>
+        <v>2.3883979943702283E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>282</v>
       </c>
@@ -3648,11 +3670,11 @@
         <v>17</v>
       </c>
       <c r="P31" s="3">
-        <f>ABS(D31-J31)</f>
+        <f t="shared" si="1"/>
         <v>0.11538906231934332</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>93</v>
       </c>
@@ -3699,11 +3721,11 @@
         <v>63</v>
       </c>
       <c r="P32" s="3">
-        <f>ABS(D32-J32)</f>
+        <f t="shared" si="1"/>
         <v>0.11501440281457853</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>153</v>
       </c>
@@ -3750,11 +3772,11 @@
         <v>150</v>
       </c>
       <c r="P33" s="3">
-        <f>ABS(D33-J33)</f>
+        <f t="shared" si="1"/>
         <v>0.11642964504566988</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>222</v>
       </c>
@@ -3801,11 +3823,11 @@
         <v>382</v>
       </c>
       <c r="P34" s="3">
-        <f>ABS(D34-J34)</f>
+        <f t="shared" si="1"/>
         <v>0.11654526534859522</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>11</v>
       </c>
@@ -3852,11 +3874,11 @@
         <v>17</v>
       </c>
       <c r="P35" s="3">
-        <f>ABS(D35-J35)</f>
+        <f t="shared" si="1"/>
         <v>0.11666088565152044</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>63</v>
       </c>
@@ -3903,11 +3925,11 @@
         <v>41</v>
       </c>
       <c r="P36" s="3">
-        <f>ABS(D36-J36)</f>
+        <f t="shared" si="1"/>
         <v>0.11664775815729667</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>74</v>
       </c>
@@ -3954,11 +3976,11 @@
         <v>163</v>
       </c>
       <c r="P37" s="3">
-        <f>ABS(D37-J37)</f>
+        <f t="shared" si="1"/>
         <v>0.11677650595444555</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>102</v>
       </c>
@@ -4005,11 +4027,11 @@
         <v>209</v>
       </c>
       <c r="P38" s="3">
-        <f>ABS(D38-J38)</f>
+        <f t="shared" si="1"/>
         <v>7.2226073044929562E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>234</v>
       </c>
@@ -4056,11 +4078,11 @@
         <v>197</v>
       </c>
       <c r="P39" s="3">
-        <f>ABS(D39-J39)</f>
+        <f t="shared" si="1"/>
         <v>0.11735460746907156</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>185</v>
       </c>
@@ -4107,11 +4129,11 @@
         <v>155</v>
       </c>
       <c r="P40" s="3">
-        <f>ABS(D40-J40)</f>
+        <f t="shared" si="1"/>
         <v>0.11781708868077234</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>101</v>
       </c>
@@ -4158,11 +4180,11 @@
         <v>17</v>
       </c>
       <c r="P41" s="3">
-        <f>ABS(D41-J41)</f>
+        <f t="shared" si="1"/>
         <v>0.11804832928662268</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>132</v>
       </c>
@@ -4209,11 +4231,11 @@
         <v>255</v>
       </c>
       <c r="P42" s="3">
-        <f>ABS(D42-J42)</f>
+        <f t="shared" si="1"/>
         <v>0.11804832928662268</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>245</v>
       </c>
@@ -4260,11 +4282,11 @@
         <v>335</v>
       </c>
       <c r="P43" s="3">
-        <f>ABS(D43-J43)</f>
+        <f t="shared" si="1"/>
         <v>0.1181639495895479</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>95</v>
       </c>
@@ -4311,11 +4333,11 @@
         <v>195</v>
       </c>
       <c r="P44" s="3">
-        <f>ABS(D44-J44)</f>
+        <f t="shared" si="1"/>
         <v>0.11851081049832346</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>164</v>
       </c>
@@ -4362,11 +4384,11 @@
         <v>90</v>
       </c>
       <c r="P45" s="3">
-        <f>ABS(D45-J45)</f>
+        <f t="shared" si="1"/>
         <v>0.11851081049832357</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>180</v>
       </c>
@@ -4413,11 +4435,11 @@
         <v>326</v>
       </c>
       <c r="P46" s="3">
-        <f>ABS(D46-J46)</f>
+        <f t="shared" si="1"/>
         <v>9.4274929015909503E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>135</v>
       </c>
@@ -4464,11 +4486,11 @@
         <v>197</v>
       </c>
       <c r="P47" s="3">
-        <f>ABS(D47-J47)</f>
+        <f t="shared" si="1"/>
         <v>8.5269467978312252E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>98</v>
       </c>
@@ -4515,11 +4537,11 @@
         <v>90</v>
       </c>
       <c r="P48" s="3">
-        <f>ABS(D48-J48)</f>
+        <f t="shared" si="1"/>
         <v>0.11862643080124868</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>117</v>
       </c>
@@ -4566,11 +4588,11 @@
         <v>150</v>
       </c>
       <c r="P49" s="3">
-        <f>ABS(D49-J49)</f>
+        <f t="shared" si="1"/>
         <v>0.11862643080124868</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>272</v>
       </c>
@@ -4617,62 +4639,62 @@
         <v>90</v>
       </c>
       <c r="P50" s="3">
-        <f>ABS(D50-J50)</f>
+        <f t="shared" si="1"/>
         <v>0.11862643080124868</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="A51" s="6">
+        <v>103</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="3">
-        <v>0.92642039487502625</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0.81159420289855078</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0.87068965517241381</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0.73188405797101452</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0.79527559055118124</v>
-      </c>
-      <c r="I51" t="s">
-        <v>48</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0.88114232859290098</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0.82258064516129037</v>
-      </c>
-      <c r="L51" s="3">
-        <v>0.86585365853658536</v>
-      </c>
-      <c r="M51" s="3">
-        <v>0.76344086021505375</v>
-      </c>
-      <c r="N51" s="3">
-        <v>0.81142857142857139</v>
-      </c>
-      <c r="O51" t="s">
-        <v>49</v>
-      </c>
-      <c r="P51" s="3">
-        <f>ABS(D51-J51)</f>
-        <v>4.5278066282125273E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D51" s="5">
+        <v>0.90872453266120568</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.79528985507246375</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.86547085201793716</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.69927536231884058</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0.77354709418837675</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0.88484217828650713</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.81182795698924726</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.79768786127167635</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="5">
+        <f t="shared" si="1"/>
+        <v>2.3882354374698544E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>21</v>
       </c>
@@ -4719,11 +4741,11 @@
         <v>65</v>
       </c>
       <c r="P52" s="3">
-        <f>ABS(D52-J52)</f>
+        <f t="shared" si="1"/>
         <v>0.11897329171002424</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>147</v>
       </c>
@@ -4770,11 +4792,11 @@
         <v>65</v>
       </c>
       <c r="P53" s="3">
-        <f>ABS(D53-J53)</f>
+        <f t="shared" si="1"/>
         <v>0.11210761223092314</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>209</v>
       </c>
@@ -4821,11 +4843,11 @@
         <v>287</v>
       </c>
       <c r="P54" s="3">
-        <f>ABS(D54-J54)</f>
+        <f t="shared" si="1"/>
         <v>0.1193201526187998</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>182</v>
       </c>
@@ -4872,11 +4894,11 @@
         <v>195</v>
       </c>
       <c r="P55" s="3">
-        <f>ABS(D55-J55)</f>
+        <f t="shared" si="1"/>
         <v>0.11955139322465025</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>231</v>
       </c>
@@ -4923,11 +4945,11 @@
         <v>396</v>
       </c>
       <c r="P56" s="3">
-        <f>ABS(D56-J56)</f>
+        <f t="shared" si="1"/>
         <v>0.10536864517265565</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>276</v>
       </c>
@@ -4974,11 +4996,11 @@
         <v>456</v>
       </c>
       <c r="P57" s="3">
-        <f>ABS(D57-J57)</f>
+        <f t="shared" si="1"/>
         <v>0.11927066155576849</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>71</v>
       </c>
@@ -5025,62 +5047,62 @@
         <v>157</v>
       </c>
       <c r="P58" s="3">
-        <f>ABS(D58-J58)</f>
+        <f t="shared" si="1"/>
         <v>0.12012949473927637</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>154</v>
-      </c>
-      <c r="B59" t="s">
-        <v>289</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="A59" s="6">
+        <v>178</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="3">
-        <v>0.89874763705103966</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0.78985507246376807</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0.86036036036036034</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0.69202898550724634</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0.76706827309236947</v>
-      </c>
-      <c r="I59" t="s">
-        <v>290</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0.87975488495779863</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="5">
+        <v>0.8907004830917874</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.79347826086956519</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.85526315789473684</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.70652173913043481</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0.77380952380952372</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.86692103133310205</v>
+      </c>
+      <c r="K59" s="5">
         <v>0.81720430107526887</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="5">
         <v>0.86419753086419748</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="5">
         <v>0.75268817204301075</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="5">
         <v>0.8045977011494253</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P59" s="3">
-        <f>ABS(D59-J59)</f>
-        <v>1.8992752093241028E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P59" s="5">
+        <f t="shared" si="1"/>
+        <v>2.3779451758685344E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>150</v>
       </c>
@@ -5127,11 +5149,11 @@
         <v>56</v>
       </c>
       <c r="P60" s="3">
-        <f>ABS(D60-J60)</f>
+        <f t="shared" si="1"/>
         <v>0.12022946040288762</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>287</v>
       </c>
@@ -5178,11 +5200,11 @@
         <v>33</v>
       </c>
       <c r="P61" s="3">
-        <f>ABS(D61-J61)</f>
+        <f t="shared" si="1"/>
         <v>0.12036073534512659</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>64</v>
       </c>
@@ -5229,11 +5251,11 @@
         <v>74</v>
       </c>
       <c r="P62" s="3">
-        <f>ABS(D62-J62)</f>
+        <f t="shared" si="1"/>
         <v>5.4705082441210084E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -5280,11 +5302,11 @@
         <v>92</v>
       </c>
       <c r="P63" s="3">
-        <f>ABS(D63-J63)</f>
+        <f t="shared" si="1"/>
         <v>0.12059197595097704</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>83</v>
       </c>
@@ -5331,11 +5353,11 @@
         <v>65</v>
       </c>
       <c r="P64" s="3">
-        <f>ABS(D64-J64)</f>
+        <f t="shared" si="1"/>
         <v>0.12059197595097704</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>149</v>
       </c>
@@ -5382,62 +5404,62 @@
         <v>282</v>
       </c>
       <c r="P65" s="3">
-        <f>ABS(D65-J65)</f>
+        <f t="shared" si="1"/>
         <v>0.12059197595097704</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>223</v>
-      </c>
-      <c r="B66" t="s">
-        <v>383</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="A66" s="6">
+        <v>67</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="3">
-        <v>0.90019166141566886</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D66" s="5">
+        <v>0.89058233564377232</v>
+      </c>
+      <c r="E66" s="5">
         <v>0.79347826086956519</v>
       </c>
-      <c r="F66" s="3">
-        <v>0.8584070796460177</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.70289855072463769</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0.77290836653386452</v>
-      </c>
-      <c r="I66" t="s">
-        <v>37</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0.87940802404902296</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0.81182795698924726</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0.74193548387096775</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0.79768786127167635</v>
-      </c>
-      <c r="O66" t="s">
-        <v>21</v>
-      </c>
-      <c r="P66" s="3">
-        <f>ABS(D66-J66)</f>
-        <v>2.0783637366645902E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F66" s="5">
+        <v>0.85526315789473684</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.70652173913043481</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0.77380952380952372</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0.86726789224187772</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0.81720430107526887</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0.86419753086419748</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="N66" s="5">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P66" s="5">
+        <f t="shared" si="1"/>
+        <v>2.3314443401894591E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>212</v>
       </c>
@@ -5484,11 +5506,11 @@
         <v>287</v>
       </c>
       <c r="P67" s="3">
-        <f>ABS(D67-J67)</f>
+        <f t="shared" si="1"/>
         <v>0.12070759625390226</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>170</v>
       </c>
@@ -5535,62 +5557,62 @@
         <v>83</v>
       </c>
       <c r="P68" s="3">
-        <f>ABS(D68-J68)</f>
+        <f t="shared" si="1"/>
         <v>0.12082321655682737</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>283</v>
-      </c>
-      <c r="B69" t="s">
-        <v>466</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="A69" s="6">
+        <v>259</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="3">
-        <v>0.89916771686620467</v>
-      </c>
-      <c r="E69" s="3">
+      <c r="D69" s="5">
+        <v>0.90174726948120154</v>
+      </c>
+      <c r="E69" s="5">
         <v>0.79347826086956519</v>
       </c>
-      <c r="F69" s="3">
-        <v>0.8584070796460177</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.70289855072463769</v>
-      </c>
-      <c r="H69" s="3">
-        <v>0.77290836653386452</v>
-      </c>
-      <c r="I69" t="s">
-        <v>37</v>
-      </c>
-      <c r="J69" s="3">
-        <v>0.87906116314024763</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0.81182795698924726</v>
-      </c>
-      <c r="L69" s="3">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="M69" s="3">
-        <v>0.74193548387096775</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0.79768786127167635</v>
-      </c>
-      <c r="O69" t="s">
-        <v>21</v>
-      </c>
-      <c r="P69" s="3">
-        <f>ABS(D69-J69)</f>
-        <v>2.0106553725957044E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F69" s="5">
+        <v>0.8616071428571429</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.69927536231884058</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0.77199999999999991</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0.87882992253439707</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0.81720430107526887</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0.86419753086419748</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="N69" s="5">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P69" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2917346946804473E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>290</v>
       </c>
@@ -5637,11 +5659,11 @@
         <v>17</v>
       </c>
       <c r="P70" s="3">
-        <f>ABS(D70-J70)</f>
+        <f t="shared" si="1"/>
         <v>0.12105445716267771</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>191</v>
       </c>
@@ -5688,11 +5710,11 @@
         <v>287</v>
       </c>
       <c r="P71" s="3">
-        <f>ABS(D71-J71)</f>
+        <f t="shared" si="1"/>
         <v>0.12105445716267782</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>227</v>
       </c>
@@ -5739,11 +5761,11 @@
         <v>92</v>
       </c>
       <c r="P72" s="3">
-        <f>ABS(D72-J72)</f>
+        <f t="shared" si="1"/>
         <v>0.12105445716267782</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>239</v>
       </c>
@@ -5790,62 +5812,62 @@
         <v>92</v>
       </c>
       <c r="P73" s="3">
-        <f>ABS(D73-J73)</f>
+        <f t="shared" si="1"/>
         <v>0.12105445716267782</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>259</v>
-      </c>
-      <c r="B74" t="s">
-        <v>432</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="A74" s="6">
+        <v>142</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="3">
-        <v>0.90174726948120154</v>
-      </c>
-      <c r="E74" s="3">
+      <c r="D74" s="5">
+        <v>0.88987345095568149</v>
+      </c>
+      <c r="E74" s="5">
         <v>0.79347826086956519</v>
       </c>
-      <c r="F74" s="3">
-        <v>0.8616071428571429</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0.69927536231884058</v>
-      </c>
-      <c r="H74" s="3">
-        <v>0.77199999999999991</v>
-      </c>
-      <c r="I74" t="s">
-        <v>433</v>
-      </c>
-      <c r="J74" s="3">
-        <v>0.87882992253439707</v>
-      </c>
-      <c r="K74" s="3">
+      <c r="F74" s="5">
+        <v>0.85526315789473684</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.70652173913043481</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0.77380952380952372</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0.86784599375650362</v>
+      </c>
+      <c r="K74" s="5">
         <v>0.81720430107526887</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="5">
         <v>0.86419753086419748</v>
       </c>
-      <c r="M74" s="3">
+      <c r="M74" s="5">
         <v>0.75268817204301075</v>
       </c>
-      <c r="N74" s="3">
+      <c r="N74" s="5">
         <v>0.8045977011494253</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P74" s="3">
-        <f>ABS(D74-J74)</f>
-        <v>2.2917346946804473E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P74" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2027457199177869E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>17</v>
       </c>
@@ -5892,11 +5914,11 @@
         <v>56</v>
       </c>
       <c r="P75" s="3">
-        <f>ABS(D75-J75)</f>
+        <f t="shared" si="1"/>
         <v>0.12117007746560304</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>14</v>
       </c>
@@ -5943,11 +5965,11 @@
         <v>51</v>
       </c>
       <c r="P76" s="3">
-        <f>ABS(D76-J76)</f>
+        <f t="shared" si="1"/>
         <v>0.12140131807145338</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>80</v>
       </c>
@@ -5994,11 +6016,11 @@
         <v>33</v>
       </c>
       <c r="P77" s="3">
-        <f>ABS(D77-J77)</f>
+        <f t="shared" si="1"/>
         <v>0.12151693837437849</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>35</v>
       </c>
@@ -6045,11 +6067,11 @@
         <v>83</v>
       </c>
       <c r="P78" s="3">
-        <f>ABS(D78-J78)</f>
+        <f t="shared" si="1"/>
         <v>0.12186379928315405</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>221</v>
       </c>
@@ -6096,11 +6118,11 @@
         <v>380</v>
       </c>
       <c r="P79" s="3">
-        <f>ABS(D79-J79)</f>
+        <f t="shared" si="1"/>
         <v>0.12197941958607939</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>230</v>
       </c>
@@ -6147,62 +6169,62 @@
         <v>380</v>
       </c>
       <c r="P80" s="3">
-        <f>ABS(D80-J80)</f>
+        <f t="shared" si="1"/>
         <v>0.12197941958607939</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>181</v>
-      </c>
-      <c r="B81" t="s">
-        <v>327</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="A81" s="6">
+        <v>223</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="3">
-        <v>0.8822726318000419</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0.78804347826086951</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0.84716157205240172</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="D81" s="5">
+        <v>0.90019166141566886</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.79347826086956519</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.8584070796460177</v>
+      </c>
+      <c r="G81" s="5">
         <v>0.70289855072463769</v>
       </c>
-      <c r="H81" s="3">
-        <v>0.76831683168316833</v>
-      </c>
-      <c r="I81" t="s">
-        <v>328</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0.87784714995953295</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0.82258064516129037</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0.75268817204301075</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0.80924855491329473</v>
-      </c>
-      <c r="O81" t="s">
-        <v>195</v>
-      </c>
-      <c r="P81" s="3">
-        <f>ABS(D81-J81)</f>
-        <v>4.4254818405089491E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H81" s="5">
+        <v>0.77290836653386452</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0.87940802404902296</v>
+      </c>
+      <c r="K81" s="5">
+        <v>0.81182795698924726</v>
+      </c>
+      <c r="L81" s="5">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="M81" s="5">
+        <v>0.74193548387096775</v>
+      </c>
+      <c r="N81" s="5">
+        <v>0.79768786127167635</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P81" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0783637366645902E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>116</v>
       </c>
@@ -6249,11 +6271,11 @@
         <v>33</v>
       </c>
       <c r="P82" s="3">
-        <f>ABS(D82-J82)</f>
+        <f t="shared" si="1"/>
         <v>0.12221066019192972</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>203</v>
       </c>
@@ -6300,11 +6322,11 @@
         <v>155</v>
       </c>
       <c r="P83" s="3">
-        <f>ABS(D83-J83)</f>
+        <f t="shared" si="1"/>
         <v>0.12232628049485472</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>219</v>
       </c>
@@ -6351,11 +6373,11 @@
         <v>377</v>
       </c>
       <c r="P84" s="3">
-        <f>ABS(D84-J84)</f>
+        <f t="shared" si="1"/>
         <v>0.12244190079777995</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>159</v>
       </c>
@@ -6402,11 +6424,11 @@
         <v>44</v>
       </c>
       <c r="P85" s="3">
-        <f>ABS(D85-J85)</f>
+        <f t="shared" si="1"/>
         <v>0.12244190079778017</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>233</v>
       </c>
@@ -6453,113 +6475,113 @@
         <v>197</v>
       </c>
       <c r="P86" s="3">
-        <f>ABS(D86-J86)</f>
+        <f t="shared" si="1"/>
         <v>0.12255752110070517</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>7</v>
-      </c>
-      <c r="B87" t="s">
-        <v>36</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="A87" s="6">
+        <v>175</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="3">
-        <v>0.90607277882797732</v>
-      </c>
-      <c r="E87" s="3">
+      <c r="D87" s="5">
+        <v>0.87605019953791219</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.78985507246376807</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.85398230088495575</v>
+      </c>
+      <c r="G87" s="5">
+        <v>0.69927536231884058</v>
+      </c>
+      <c r="H87" s="5">
+        <v>0.76892430278884472</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0.85582148225228361</v>
+      </c>
+      <c r="K87" s="5">
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="L87" s="5">
+        <v>0.84337349397590367</v>
+      </c>
+      <c r="M87" s="5">
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="N87" s="5">
+        <v>0.79545454545454553</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0228717285628584E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>283</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0.89916771686620467</v>
+      </c>
+      <c r="E88" s="5">
         <v>0.79347826086956519</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F88" s="5">
         <v>0.8584070796460177</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G88" s="5">
         <v>0.70289855072463769</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H88" s="5">
         <v>0.77290836653386452</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I88" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J87" s="3">
-        <v>0.87732685859636961</v>
-      </c>
-      <c r="K87" s="3">
+      <c r="J88" s="5">
+        <v>0.87906116314024763</v>
+      </c>
+      <c r="K88" s="5">
         <v>0.81182795698924726</v>
       </c>
-      <c r="L87" s="3">
+      <c r="L88" s="5">
         <v>0.86250000000000004</v>
       </c>
-      <c r="M87" s="3">
+      <c r="M88" s="5">
         <v>0.74193548387096775</v>
       </c>
-      <c r="N87" s="3">
+      <c r="N88" s="5">
         <v>0.79768786127167635</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O88" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P87" s="3">
-        <f>ABS(D87-J87)</f>
-        <v>2.8745920231607713E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>187</v>
-      </c>
-      <c r="B88" t="s">
-        <v>336</v>
-      </c>
-      <c r="C88" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="3">
-        <v>0.90544265910522992</v>
-      </c>
-      <c r="E88" s="3">
-        <v>0.79347826086956519</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0.8584070796460177</v>
-      </c>
-      <c r="G88" s="3">
-        <v>0.70289855072463769</v>
-      </c>
-      <c r="H88" s="3">
-        <v>0.77290836653386452</v>
-      </c>
-      <c r="I88" t="s">
-        <v>37</v>
-      </c>
-      <c r="J88" s="3">
-        <v>0.87697999768759394</v>
-      </c>
-      <c r="K88" s="3">
-        <v>0.81182795698924726</v>
-      </c>
-      <c r="L88" s="3">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="M88" s="3">
-        <v>0.74193548387096775</v>
-      </c>
-      <c r="N88" s="3">
-        <v>0.79768786127167635</v>
-      </c>
-      <c r="O88" t="s">
-        <v>21</v>
-      </c>
-      <c r="P88" s="3">
-        <f>ABS(D88-J88)</f>
-        <v>2.8462661417635982E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P88" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0106553725957044E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>225</v>
       </c>
@@ -6606,11 +6628,11 @@
         <v>56</v>
       </c>
       <c r="P89" s="3">
-        <f>ABS(D89-J89)</f>
+        <f t="shared" si="1"/>
         <v>8.1258916041082152E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>87</v>
       </c>
@@ -6657,113 +6679,113 @@
         <v>182</v>
       </c>
       <c r="P90" s="3">
-        <f>ABS(D90-J90)</f>
+        <f t="shared" si="1"/>
         <v>0.12313562261533129</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>268</v>
-      </c>
-      <c r="B91" t="s">
-        <v>444</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="A91" s="6">
+        <v>154</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D91" s="3">
-        <v>0.92218021424070573</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0.79891304347826086</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0.86343612334801767</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0.71014492753623193</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0.77932405566600405</v>
-      </c>
-      <c r="I91" t="s">
-        <v>445</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0.8767487570817436</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0.81182795698924726</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0.74193548387096775</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0.79768786127167635</v>
-      </c>
-      <c r="O91" t="s">
-        <v>21</v>
-      </c>
-      <c r="P91" s="3">
-        <f>ABS(D91-J91)</f>
-        <v>4.543145715896213E-2</v>
+      <c r="D91" s="5">
+        <v>0.89874763705103966</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.78985507246376807</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.86036036036036034</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0.69202898550724634</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0.76706827309236947</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0.87975488495779863</v>
+      </c>
+      <c r="K91" s="5">
+        <v>0.81720430107526887</v>
+      </c>
+      <c r="L91" s="5">
+        <v>0.86419753086419748</v>
+      </c>
+      <c r="M91" s="5">
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="N91" s="5">
+        <v>0.8045977011494253</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P91" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8992752093241028E-2</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D92" s="3">
-        <v>0.91363421550094503</v>
+        <v>0.91241992228523416</v>
       </c>
       <c r="E92" s="3">
-        <v>0.79710144927536231</v>
+        <v>0.8188405797101449</v>
       </c>
       <c r="F92" s="3">
-        <v>0.86283185840707965</v>
+        <v>0.85772357723577231</v>
       </c>
       <c r="G92" s="3">
-        <v>0.70652173913043481</v>
+        <v>0.76449275362318836</v>
       </c>
       <c r="H92" s="3">
-        <v>0.77689243027888444</v>
+        <v>0.80842911877394641</v>
       </c>
       <c r="I92" t="s">
-        <v>110</v>
+        <v>354</v>
       </c>
       <c r="J92" s="3">
-        <v>0.87674875708174349</v>
+        <v>0.8632211816394959</v>
       </c>
       <c r="K92" s="3">
         <v>0.81182795698924726</v>
       </c>
       <c r="L92" s="3">
-        <v>0.86250000000000004</v>
+        <v>0.83720930232558144</v>
       </c>
       <c r="M92" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="N92" s="3">
-        <v>0.79768786127167635</v>
+        <v>0.80446927374301691</v>
       </c>
       <c r="O92" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="P92" s="3">
-        <f>ABS(D92-J92)</f>
-        <v>3.6885458419201544E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>4.9198740645738259E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>293</v>
       </c>
@@ -6810,11 +6832,11 @@
         <v>406</v>
       </c>
       <c r="P93" s="3">
-        <f>ABS(D93-J93)</f>
+        <f t="shared" si="1"/>
         <v>0.12359810382703196</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -6861,11 +6883,11 @@
         <v>21</v>
       </c>
       <c r="P94" s="3">
-        <f>ABS(D94-J94)</f>
+        <f t="shared" ref="P94:P157" si="2">ABS(D94-J94)</f>
         <v>5.7304257996324215E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>114</v>
       </c>
@@ -6912,11 +6934,11 @@
         <v>114</v>
       </c>
       <c r="P95" s="3">
-        <f>ABS(D95-J95)</f>
+        <f t="shared" si="2"/>
         <v>0.11581097260716799</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>23</v>
       </c>
@@ -6963,62 +6985,62 @@
         <v>56</v>
       </c>
       <c r="P96" s="3">
-        <f>ABS(D96-J96)</f>
+        <f t="shared" si="2"/>
         <v>0.12406058503873274</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="3">
-        <v>0.92324354127284181</v>
+        <v>0.65244959042218031</v>
       </c>
       <c r="E97" s="3">
-        <v>0.79710144927536231</v>
+        <v>0.60688405797101452</v>
       </c>
       <c r="F97" s="3">
-        <v>0.86283185840707965</v>
+        <v>0.57074340527577938</v>
       </c>
       <c r="G97" s="3">
-        <v>0.70652173913043481</v>
+        <v>0.8623188405797102</v>
       </c>
       <c r="H97" s="3">
-        <v>0.77689243027888444</v>
+        <v>0.68686868686868685</v>
       </c>
       <c r="I97" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="J97" s="3">
-        <v>0.87593941496126715</v>
+        <v>0.60405827263267431</v>
       </c>
       <c r="K97" s="3">
-        <v>0.81182795698924726</v>
+        <v>0.60752688172043012</v>
       </c>
       <c r="L97" s="3">
-        <v>0.86250000000000004</v>
+        <v>0.57042253521126762</v>
       </c>
       <c r="M97" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.87096774193548387</v>
       </c>
       <c r="N97" s="3">
-        <v>0.79768786127167635</v>
+        <v>0.68936170212765957</v>
       </c>
       <c r="O97" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="P97" s="3">
-        <f>ABS(D97-J97)</f>
-        <v>4.7304126311574657E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>4.8391317789506005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>188</v>
       </c>
@@ -7065,11 +7087,11 @@
         <v>338</v>
       </c>
       <c r="P98" s="3">
-        <f>ABS(D98-J98)</f>
+        <f t="shared" si="2"/>
         <v>0.12417620534165796</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>197</v>
       </c>
@@ -7116,113 +7138,113 @@
         <v>338</v>
       </c>
       <c r="P99" s="3">
-        <f>ABS(D99-J99)</f>
+        <f t="shared" si="2"/>
         <v>0.12417620534165796</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>127</v>
+        <v>286</v>
       </c>
       <c r="B100" t="s">
-        <v>246</v>
+        <v>470</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="3">
-        <v>0.90561331653014066</v>
+        <v>0.65244959042218031</v>
       </c>
       <c r="E100" s="3">
-        <v>0.79347826086956519</v>
+        <v>0.60688405797101452</v>
       </c>
       <c r="F100" s="3">
-        <v>0.8584070796460177</v>
+        <v>0.57074340527577938</v>
       </c>
       <c r="G100" s="3">
-        <v>0.70289855072463769</v>
+        <v>0.8623188405797102</v>
       </c>
       <c r="H100" s="3">
-        <v>0.77290836653386452</v>
+        <v>0.68686868686868685</v>
       </c>
       <c r="I100" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="J100" s="3">
-        <v>0.87582379465834193</v>
+        <v>0.60405827263267431</v>
       </c>
       <c r="K100" s="3">
-        <v>0.81182795698924726</v>
+        <v>0.60752688172043012</v>
       </c>
       <c r="L100" s="3">
-        <v>0.86250000000000004</v>
+        <v>0.57042253521126762</v>
       </c>
       <c r="M100" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.87096774193548387</v>
       </c>
       <c r="N100" s="3">
-        <v>0.79768786127167635</v>
+        <v>0.68936170212765957</v>
       </c>
       <c r="O100" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="P100" s="3">
-        <f>ABS(D100-J100)</f>
-        <v>2.978952187179873E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8391317789506005E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="B101" t="s">
-        <v>347</v>
+        <v>440</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="3">
-        <v>0.91939718546523841</v>
+        <v>0.78166351606805295</v>
       </c>
       <c r="E101" s="3">
-        <v>0.79710144927536231</v>
+        <v>0.77536231884057971</v>
       </c>
       <c r="F101" s="3">
-        <v>0.86283185840707965</v>
+        <v>0.82203389830508478</v>
       </c>
       <c r="G101" s="3">
-        <v>0.70652173913043481</v>
+        <v>0.70289855072463769</v>
       </c>
       <c r="H101" s="3">
-        <v>0.77689243027888444</v>
+        <v>0.75781250000000011</v>
       </c>
       <c r="I101" t="s">
-        <v>110</v>
+        <v>441</v>
       </c>
       <c r="J101" s="3">
-        <v>0.87570817435541692</v>
+        <v>0.82969129379118978</v>
       </c>
       <c r="K101" s="3">
-        <v>0.81182795698924726</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="L101" s="3">
-        <v>0.86250000000000004</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="M101" s="3">
         <v>0.74193548387096775</v>
       </c>
       <c r="N101" s="3">
-        <v>0.79768786127167635</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="O101" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="P101" s="3">
-        <f>ABS(D101-J101)</f>
-        <v>4.3689011109821485E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>4.8027777723136822E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>57</v>
       </c>
@@ -7269,11 +7291,11 @@
         <v>125</v>
       </c>
       <c r="P102" s="3">
-        <f>ABS(D102-J102)</f>
+        <f t="shared" si="2"/>
         <v>0.12440744594750841</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>140</v>
       </c>
@@ -7320,11 +7342,11 @@
         <v>219</v>
       </c>
       <c r="P103" s="3">
-        <f>ABS(D103-J103)</f>
+        <f t="shared" si="2"/>
         <v>0.12440744594750841</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>30</v>
       </c>
@@ -7371,11 +7393,11 @@
         <v>86</v>
       </c>
       <c r="P104" s="3">
-        <f>ABS(D104-J104)</f>
+        <f t="shared" si="2"/>
         <v>0.11206507423195</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42</v>
       </c>
@@ -7422,11 +7444,11 @@
         <v>53</v>
       </c>
       <c r="P105" s="3">
-        <f>ABS(D105-J105)</f>
+        <f t="shared" si="2"/>
         <v>5.3198862986881257E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>51</v>
       </c>
@@ -7473,11 +7495,11 @@
         <v>71</v>
       </c>
       <c r="P106" s="3">
-        <f>ABS(D106-J106)</f>
+        <f t="shared" si="2"/>
         <v>0.12475430685628397</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>200</v>
       </c>
@@ -7524,11 +7546,11 @@
         <v>44</v>
       </c>
       <c r="P107" s="3">
-        <f>ABS(D107-J107)</f>
+        <f t="shared" si="2"/>
         <v>0.12475430685628397</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>82</v>
       </c>
@@ -7575,11 +7597,11 @@
         <v>163</v>
       </c>
       <c r="P108" s="3">
-        <f>ABS(D108-J108)</f>
+        <f t="shared" si="2"/>
         <v>7.4722899223901518E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>251</v>
       </c>
@@ -7626,11 +7648,11 @@
         <v>56</v>
       </c>
       <c r="P109" s="3">
-        <f>ABS(D109-J109)</f>
+        <f t="shared" si="2"/>
         <v>0.12486992715920919</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>176</v>
       </c>
@@ -7677,11 +7699,11 @@
         <v>125</v>
       </c>
       <c r="P110" s="3">
-        <f>ABS(D110-J110)</f>
+        <f t="shared" si="2"/>
         <v>0.12498554746213431</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>248</v>
       </c>
@@ -7728,11 +7750,11 @@
         <v>59</v>
       </c>
       <c r="P111" s="3">
-        <f>ABS(D111-J111)</f>
+        <f t="shared" si="2"/>
         <v>0.12498554746213431</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>296</v>
       </c>
@@ -7779,11 +7801,11 @@
         <v>59</v>
       </c>
       <c r="P112" s="3">
-        <f>ABS(D112-J112)</f>
+        <f t="shared" si="2"/>
         <v>0.12498554746213431</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>8</v>
       </c>
@@ -7830,11 +7852,11 @@
         <v>39</v>
       </c>
       <c r="P113" s="3">
-        <f>ABS(D113-J113)</f>
+        <f t="shared" si="2"/>
         <v>0.12510116776505942</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>108</v>
       </c>
@@ -7881,11 +7903,11 @@
         <v>219</v>
       </c>
       <c r="P114" s="3">
-        <f>ABS(D114-J114)</f>
+        <f t="shared" si="2"/>
         <v>0.12027024989066326</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>12</v>
       </c>
@@ -7932,11 +7954,11 @@
         <v>17</v>
       </c>
       <c r="P115" s="3">
-        <f>ABS(D115-J115)</f>
+        <f t="shared" si="2"/>
         <v>0.12510116776505953</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>20</v>
       </c>
@@ -7983,11 +8005,11 @@
         <v>63</v>
       </c>
       <c r="P116" s="3">
-        <f>ABS(D116-J116)</f>
+        <f t="shared" si="2"/>
         <v>0.12510116776505953</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>143</v>
       </c>
@@ -8034,11 +8056,11 @@
         <v>125</v>
       </c>
       <c r="P117" s="3">
-        <f>ABS(D117-J117)</f>
+        <f t="shared" si="2"/>
         <v>0.12510116776505953</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>167</v>
       </c>
@@ -8085,11 +8107,11 @@
         <v>65</v>
       </c>
       <c r="P118" s="3">
-        <f>ABS(D118-J118)</f>
+        <f t="shared" si="2"/>
         <v>0.12533240837090986</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>54</v>
       </c>
@@ -8136,11 +8158,11 @@
         <v>114</v>
       </c>
       <c r="P119" s="3">
-        <f>ABS(D119-J119)</f>
+        <f t="shared" si="2"/>
         <v>0.11701765023699984</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>218</v>
       </c>
@@ -8187,11 +8209,11 @@
         <v>90</v>
       </c>
       <c r="P120" s="3">
-        <f>ABS(D120-J120)</f>
+        <f t="shared" si="2"/>
         <v>0.12556364897676031</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>263</v>
       </c>
@@ -8238,11 +8260,11 @@
         <v>152</v>
       </c>
       <c r="P121" s="3">
-        <f>ABS(D121-J121)</f>
+        <f t="shared" si="2"/>
         <v>0.12556364897676031</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>40</v>
       </c>
@@ -8289,11 +8311,11 @@
         <v>21</v>
       </c>
       <c r="P122" s="3">
-        <f>ABS(D122-J122)</f>
+        <f t="shared" si="2"/>
         <v>5.3189246175295635E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>53</v>
       </c>
@@ -8340,11 +8362,11 @@
         <v>125</v>
       </c>
       <c r="P123" s="3">
-        <f>ABS(D123-J123)</f>
+        <f t="shared" si="2"/>
         <v>0.12567926927968542</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>134</v>
       </c>
@@ -8391,11 +8413,11 @@
         <v>21</v>
       </c>
       <c r="P124" s="3">
-        <f>ABS(D124-J124)</f>
+        <f t="shared" si="2"/>
         <v>0.12591050988553576</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>113</v>
       </c>
@@ -8442,62 +8464,62 @@
         <v>152</v>
       </c>
       <c r="P125" s="3">
-        <f>ABS(D125-J125)</f>
+        <f t="shared" si="2"/>
         <v>0.12591050988553587</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="B126" t="s">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D126" s="3">
-        <v>0.92064429741650911</v>
+        <v>0.78520793950850665</v>
       </c>
       <c r="E126" s="3">
-        <v>0.82789855072463769</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="F126" s="3">
-        <v>0.85214007782101164</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="G126" s="3">
-        <v>0.79347826086956519</v>
+        <v>0.71739130434782605</v>
       </c>
       <c r="H126" s="3">
-        <v>0.82176360225140721</v>
+        <v>0.7674418604651162</v>
       </c>
       <c r="I126" t="s">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="J126" s="3">
-        <v>0.87385824950861368</v>
+        <v>0.83321771303040826</v>
       </c>
       <c r="K126" s="3">
-        <v>0.77956989247311825</v>
+        <v>0.80107526881720426</v>
       </c>
       <c r="L126" s="3">
-        <v>0.78888888888888886</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="M126" s="3">
-        <v>0.76344086021505375</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="N126" s="3">
-        <v>0.77595628415300533</v>
+        <v>0.79558011049723765</v>
       </c>
       <c r="O126" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="P126" s="3">
-        <f>ABS(D126-J126)</f>
-        <v>4.6786047907895423E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>4.8009773521901611E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>194</v>
       </c>
@@ -8544,11 +8566,11 @@
         <v>83</v>
       </c>
       <c r="P127" s="3">
-        <f>ABS(D127-J127)</f>
+        <f t="shared" si="2"/>
         <v>0.12625737079431143</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>269</v>
       </c>
@@ -8595,11 +8617,11 @@
         <v>125</v>
       </c>
       <c r="P128" s="3">
-        <f>ABS(D128-J128)</f>
+        <f t="shared" si="2"/>
         <v>0.12625737079431143</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>126</v>
       </c>
@@ -8646,11 +8668,11 @@
         <v>51</v>
       </c>
       <c r="P129" s="3">
-        <f>ABS(D129-J129)</f>
+        <f t="shared" si="2"/>
         <v>0.1150727457155466</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>138</v>
       </c>
@@ -8697,11 +8719,11 @@
         <v>265</v>
       </c>
       <c r="P130" s="3">
-        <f>ABS(D130-J130)</f>
+        <f t="shared" si="2"/>
         <v>0.11924728887874758</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>161</v>
       </c>
@@ -8748,11 +8770,11 @@
         <v>92</v>
       </c>
       <c r="P131" s="3">
-        <f>ABS(D131-J131)</f>
+        <f t="shared" si="2"/>
         <v>0.12625737079431154</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>278</v>
       </c>
@@ -8799,11 +8821,11 @@
         <v>236</v>
       </c>
       <c r="P132" s="3">
-        <f>ABS(D132-J132)</f>
+        <f t="shared" si="2"/>
         <v>0.12625737079431165</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>128</v>
       </c>
@@ -8850,11 +8872,11 @@
         <v>51</v>
       </c>
       <c r="P133" s="3">
-        <f>ABS(D133-J133)</f>
+        <f t="shared" si="2"/>
         <v>0.1266042317030871</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>186</v>
       </c>
@@ -8901,11 +8923,11 @@
         <v>335</v>
       </c>
       <c r="P134" s="3">
-        <f>ABS(D134-J134)</f>
+        <f t="shared" si="2"/>
         <v>0.12683547230893755</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>65</v>
       </c>
@@ -8952,11 +8974,11 @@
         <v>125</v>
       </c>
       <c r="P135" s="3">
-        <f>ABS(D135-J135)</f>
+        <f t="shared" si="2"/>
         <v>0.12695109261186266</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>81</v>
       </c>
@@ -9003,11 +9025,11 @@
         <v>125</v>
       </c>
       <c r="P136" s="3">
-        <f>ABS(D136-J136)</f>
+        <f t="shared" si="2"/>
         <v>0.12695109261186266</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>273</v>
       </c>
@@ -9054,11 +9076,11 @@
         <v>68</v>
       </c>
       <c r="P137" s="3">
-        <f>ABS(D137-J137)</f>
+        <f t="shared" si="2"/>
         <v>0.12706671291478777</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>204</v>
       </c>
@@ -9105,11 +9127,11 @@
         <v>197</v>
       </c>
       <c r="P138" s="3">
-        <f>ABS(D138-J138)</f>
+        <f t="shared" si="2"/>
         <v>0.12718233321771288</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>242</v>
       </c>
@@ -9156,11 +9178,11 @@
         <v>90</v>
       </c>
       <c r="P139" s="3">
-        <f>ABS(D139-J139)</f>
+        <f t="shared" si="2"/>
         <v>0.127182333217713</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>56</v>
       </c>
@@ -9207,11 +9229,11 @@
         <v>130</v>
       </c>
       <c r="P140" s="3">
-        <f>ABS(D140-J140)</f>
+        <f t="shared" si="2"/>
         <v>0.12729795352063811</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>47</v>
       </c>
@@ -9258,11 +9280,11 @@
         <v>101</v>
       </c>
       <c r="P141" s="3">
-        <f>ABS(D141-J141)</f>
+        <f t="shared" si="2"/>
         <v>0.12741357382356344</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>162</v>
       </c>
@@ -9309,11 +9331,11 @@
         <v>300</v>
       </c>
       <c r="P142" s="3">
-        <f>ABS(D142-J142)</f>
+        <f t="shared" si="2"/>
         <v>0.12741357382356344</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>62</v>
       </c>
@@ -9360,11 +9382,11 @@
         <v>83</v>
       </c>
       <c r="P143" s="3">
-        <f>ABS(D143-J143)</f>
+        <f t="shared" si="2"/>
         <v>0.12776043473233889</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>146</v>
       </c>
@@ -9411,11 +9433,11 @@
         <v>160</v>
       </c>
       <c r="P144" s="3">
-        <f>ABS(D144-J144)</f>
+        <f t="shared" si="2"/>
         <v>0.12799167533818934</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>275</v>
       </c>
@@ -9462,11 +9484,11 @@
         <v>150</v>
       </c>
       <c r="P145" s="3">
-        <f>ABS(D145-J145)</f>
+        <f t="shared" si="2"/>
         <v>0.12810729564111445</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>38</v>
       </c>
@@ -9513,11 +9535,11 @@
         <v>101</v>
       </c>
       <c r="P146" s="3">
-        <f>ABS(D146-J146)</f>
+        <f t="shared" si="2"/>
         <v>0.12810729564111467</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>110</v>
       </c>
@@ -9564,11 +9586,11 @@
         <v>101</v>
       </c>
       <c r="P147" s="3">
-        <f>ABS(D147-J147)</f>
+        <f t="shared" si="2"/>
         <v>0.12810729564111467</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>137</v>
       </c>
@@ -9615,11 +9637,11 @@
         <v>101</v>
       </c>
       <c r="P148" s="3">
-        <f>ABS(D148-J148)</f>
+        <f t="shared" si="2"/>
         <v>0.12810729564111467</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>179</v>
       </c>
@@ -9666,62 +9688,62 @@
         <v>253</v>
       </c>
       <c r="P149" s="3">
-        <f>ABS(D149-J149)</f>
+        <f t="shared" si="2"/>
         <v>0.12833853624696479</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="B150" t="s">
-        <v>459</v>
+        <v>109</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D150" s="3">
-        <v>0.90483223062381846</v>
+        <v>0.92324354127284181</v>
       </c>
       <c r="E150" s="3">
-        <v>0.81521739130434778</v>
+        <v>0.79710144927536231</v>
       </c>
       <c r="F150" s="3">
-        <v>0.84251968503937003</v>
+        <v>0.86283185840707965</v>
       </c>
       <c r="G150" s="3">
-        <v>0.77536231884057971</v>
+        <v>0.70652173913043481</v>
       </c>
       <c r="H150" s="3">
-        <v>0.8075471698113208</v>
+        <v>0.77689243027888444</v>
       </c>
       <c r="I150" t="s">
-        <v>460</v>
+        <v>110</v>
       </c>
       <c r="J150" s="3">
-        <v>0.8716614637530351</v>
+        <v>0.87593941496126715</v>
       </c>
       <c r="K150" s="3">
-        <v>0.77956989247311825</v>
+        <v>0.81182795698924726</v>
       </c>
       <c r="L150" s="3">
-        <v>0.78888888888888886</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="M150" s="3">
-        <v>0.76344086021505375</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N150" s="3">
-        <v>0.77595628415300533</v>
+        <v>0.79768786127167635</v>
       </c>
       <c r="O150" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="P150" s="3">
-        <f>ABS(D150-J150)</f>
-        <v>3.3170766870783353E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>4.7304126311574657E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>264</v>
       </c>
@@ -9768,11 +9790,11 @@
         <v>63</v>
       </c>
       <c r="P151" s="3">
-        <f>ABS(D151-J151)</f>
+        <f t="shared" si="2"/>
         <v>0.12868539715574046</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>9</v>
       </c>
@@ -9819,11 +9841,11 @@
         <v>41</v>
       </c>
       <c r="P152" s="3">
-        <f>ABS(D152-J152)</f>
+        <f t="shared" si="2"/>
         <v>0.12880101745866568</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>18</v>
       </c>
@@ -9870,11 +9892,11 @@
         <v>59</v>
       </c>
       <c r="P153" s="3">
-        <f>ABS(D153-J153)</f>
+        <f t="shared" si="2"/>
         <v>0.12089826593587627</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>36</v>
       </c>
@@ -9921,11 +9943,11 @@
         <v>28</v>
       </c>
       <c r="P154" s="3">
-        <f>ABS(D154-J154)</f>
+        <f t="shared" si="2"/>
         <v>0.11189280489827924</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>255</v>
       </c>
@@ -9972,11 +9994,11 @@
         <v>150</v>
       </c>
       <c r="P155" s="3">
-        <f>ABS(D155-J155)</f>
+        <f t="shared" si="2"/>
         <v>0.12891663776159101</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>48</v>
       </c>
@@ -10023,62 +10045,62 @@
         <v>81</v>
       </c>
       <c r="P156" s="3">
-        <f>ABS(D156-J156)</f>
+        <f t="shared" si="2"/>
         <v>0.10106816822251385</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B157" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D157" s="3">
-        <v>0.89673913043478259</v>
+        <v>0.92064429741650911</v>
       </c>
       <c r="E157" s="3">
-        <v>0.79528985507246375</v>
+        <v>0.82789855072463769</v>
       </c>
       <c r="F157" s="3">
-        <v>0.8590308370044053</v>
+        <v>0.85214007782101164</v>
       </c>
       <c r="G157" s="3">
-        <v>0.70652173913043481</v>
+        <v>0.79347826086956519</v>
       </c>
       <c r="H157" s="3">
-        <v>0.77534791252485091</v>
+        <v>0.82176360225140721</v>
       </c>
       <c r="I157" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="J157" s="3">
-        <v>0.87073650132963343</v>
+        <v>0.87385824950861368</v>
       </c>
       <c r="K157" s="3">
-        <v>0.81720430107526887</v>
+        <v>0.77956989247311825</v>
       </c>
       <c r="L157" s="3">
-        <v>0.86419753086419748</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="M157" s="3">
-        <v>0.75268817204301075</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="N157" s="3">
-        <v>0.8045977011494253</v>
+        <v>0.77595628415300533</v>
       </c>
       <c r="O157" t="s">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="P157" s="3">
-        <f>ABS(D157-J157)</f>
-        <v>2.6002629105149166E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>4.6786047907895423E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>5</v>
       </c>
@@ -10125,11 +10147,11 @@
         <v>33</v>
       </c>
       <c r="P158" s="3">
-        <f>ABS(D158-J158)</f>
+        <f t="shared" ref="P158:P221" si="3">ABS(D158-J158)</f>
         <v>0.12937911897329168</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>32</v>
       </c>
@@ -10176,11 +10198,11 @@
         <v>90</v>
       </c>
       <c r="P159" s="3">
-        <f>ABS(D159-J159)</f>
+        <f t="shared" si="3"/>
         <v>0.12937911897329168</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>288</v>
       </c>
@@ -10227,62 +10249,62 @@
         <v>338</v>
       </c>
       <c r="P160" s="3">
-        <f>ABS(D160-J160)</f>
+        <f t="shared" si="3"/>
         <v>0.12972597988206724</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B161" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="C161" t="s">
         <v>19</v>
       </c>
       <c r="D161" s="3">
-        <v>0.89656847300987175</v>
+        <v>0.79547363999159837</v>
       </c>
       <c r="E161" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.77173913043478259</v>
       </c>
       <c r="F161" s="3">
-        <v>0.85462555066079293</v>
+        <v>0.83185840707964598</v>
       </c>
       <c r="G161" s="3">
-        <v>0.70289855072463769</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="H161" s="3">
-        <v>0.77137176938369778</v>
+        <v>0.74900398406374513</v>
       </c>
       <c r="I161" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="J161" s="3">
-        <v>0.87015839981500753</v>
+        <v>0.84206266620418546</v>
       </c>
       <c r="K161" s="3">
-        <v>0.81720430107526887</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L161" s="3">
-        <v>0.86419753086419748</v>
+        <v>0.82926829268292679</v>
       </c>
       <c r="M161" s="3">
-        <v>0.75268817204301075</v>
+        <v>0.73118279569892475</v>
       </c>
       <c r="N161" s="3">
-        <v>0.8045977011494253</v>
+        <v>0.77714285714285702</v>
       </c>
       <c r="O161" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="P161" s="3">
-        <f>ABS(D161-J161)</f>
-        <v>2.6410073194864214E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4.6589026212587092E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>257</v>
       </c>
@@ -10329,11 +10351,11 @@
         <v>335</v>
       </c>
       <c r="P162" s="3">
-        <f>ABS(D162-J162)</f>
+        <f t="shared" si="3"/>
         <v>0.13018846109376814</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>207</v>
       </c>
@@ -10380,11 +10402,11 @@
         <v>63</v>
       </c>
       <c r="P163" s="3">
-        <f>ABS(D163-J163)</f>
+        <f t="shared" si="3"/>
         <v>0.12682276828226913</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>125</v>
       </c>
@@ -10431,11 +10453,11 @@
         <v>51</v>
       </c>
       <c r="P164" s="3">
-        <f>ABS(D164-J164)</f>
+        <f t="shared" si="3"/>
         <v>0.13053532200254359</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>166</v>
       </c>
@@ -10482,11 +10504,11 @@
         <v>209</v>
       </c>
       <c r="P165" s="3">
-        <f>ABS(D165-J165)</f>
+        <f t="shared" si="3"/>
         <v>5.6771931958435218E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>69</v>
       </c>
@@ -10533,11 +10555,11 @@
         <v>152</v>
       </c>
       <c r="P166" s="3">
-        <f>ABS(D166-J166)</f>
+        <f t="shared" si="3"/>
         <v>0.13076656260839403</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>152</v>
       </c>
@@ -10584,11 +10606,11 @@
         <v>287</v>
       </c>
       <c r="P167" s="3">
-        <f>ABS(D167-J167)</f>
+        <f t="shared" si="3"/>
         <v>0.13076656260839403</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>236</v>
       </c>
@@ -10635,11 +10657,11 @@
         <v>403</v>
       </c>
       <c r="P168" s="3">
-        <f>ABS(D168-J168)</f>
+        <f t="shared" si="3"/>
         <v>0.13088218291131926</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>77</v>
       </c>
@@ -10686,11 +10708,11 @@
         <v>92</v>
       </c>
       <c r="P169" s="3">
-        <f>ABS(D169-J169)</f>
+        <f t="shared" si="3"/>
         <v>0.13099780321424448</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>297</v>
       </c>
@@ -10737,11 +10759,11 @@
         <v>92</v>
       </c>
       <c r="P170" s="3">
-        <f>ABS(D170-J170)</f>
+        <f t="shared" si="3"/>
         <v>0.1312290438200947</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>122</v>
       </c>
@@ -10788,11 +10810,11 @@
         <v>83</v>
       </c>
       <c r="P171" s="3">
-        <f>ABS(D171-J171)</f>
+        <f t="shared" si="3"/>
         <v>0.13146028442594515</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>206</v>
       </c>
@@ -10839,11 +10861,11 @@
         <v>360</v>
       </c>
       <c r="P172" s="3">
-        <f>ABS(D172-J172)</f>
+        <f t="shared" si="3"/>
         <v>0.13157590472887026</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>131</v>
       </c>
@@ -10890,11 +10912,11 @@
         <v>253</v>
       </c>
       <c r="P173" s="3">
-        <f>ABS(D173-J173)</f>
+        <f t="shared" si="3"/>
         <v>0.13157590472887037</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>177</v>
       </c>
@@ -10941,11 +10963,11 @@
         <v>152</v>
       </c>
       <c r="P174" s="3">
-        <f>ABS(D174-J174)</f>
+        <f t="shared" si="3"/>
         <v>0.1316915250317956</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>155</v>
       </c>
@@ -10992,164 +11014,164 @@
         <v>233</v>
       </c>
       <c r="P175" s="3">
-        <f>ABS(D175-J175)</f>
+        <f t="shared" si="3"/>
         <v>0.13192276563764593</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="B176" t="s">
-        <v>271</v>
+        <v>444</v>
       </c>
       <c r="C176" t="s">
         <v>19</v>
       </c>
       <c r="D176" s="3">
-        <v>0.88987345095568149</v>
+        <v>0.92218021424070573</v>
       </c>
       <c r="E176" s="3">
-        <v>0.79347826086956519</v>
+        <v>0.79891304347826086</v>
       </c>
       <c r="F176" s="3">
-        <v>0.85526315789473684</v>
+        <v>0.86343612334801767</v>
       </c>
       <c r="G176" s="3">
-        <v>0.70652173913043481</v>
+        <v>0.71014492753623193</v>
       </c>
       <c r="H176" s="3">
-        <v>0.77380952380952372</v>
+        <v>0.77932405566600405</v>
       </c>
       <c r="I176" t="s">
-        <v>148</v>
+        <v>445</v>
       </c>
       <c r="J176" s="3">
-        <v>0.86784599375650362</v>
+        <v>0.8767487570817436</v>
       </c>
       <c r="K176" s="3">
-        <v>0.81720430107526887</v>
+        <v>0.81182795698924726</v>
       </c>
       <c r="L176" s="3">
-        <v>0.86419753086419748</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="M176" s="3">
-        <v>0.75268817204301075</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N176" s="3">
-        <v>0.8045977011494253</v>
+        <v>0.79768786127167635</v>
       </c>
       <c r="O176" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="P176" s="3">
-        <f>ABS(D176-J176)</f>
-        <v>2.2027457199177869E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.543145715896213E-2</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>457</v>
+        <v>47</v>
       </c>
       <c r="C177" t="s">
         <v>19</v>
       </c>
       <c r="D177" s="3">
-        <v>0.89138311279143023</v>
+        <v>0.92642039487502625</v>
       </c>
       <c r="E177" s="3">
-        <v>0.79528985507246375</v>
+        <v>0.81159420289855078</v>
       </c>
       <c r="F177" s="3">
-        <v>0.8590308370044053</v>
+        <v>0.87068965517241381</v>
       </c>
       <c r="G177" s="3">
-        <v>0.70652173913043481</v>
+        <v>0.73188405797101452</v>
       </c>
       <c r="H177" s="3">
-        <v>0.77534791252485091</v>
+        <v>0.79527559055118124</v>
       </c>
       <c r="I177" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="J177" s="3">
-        <v>0.86749913284772795</v>
+        <v>0.88114232859290098</v>
       </c>
       <c r="K177" s="3">
-        <v>0.81182795698924726</v>
+        <v>0.82258064516129037</v>
       </c>
       <c r="L177" s="3">
-        <v>0.85365853658536583</v>
+        <v>0.86585365853658536</v>
       </c>
       <c r="M177" s="3">
-        <v>0.75268817204301075</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="N177" s="3">
-        <v>0.8</v>
+        <v>0.81142857142857139</v>
       </c>
       <c r="O177" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="P177" s="3">
-        <f>ABS(D177-J177)</f>
-        <v>2.3883979943702283E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.5278066282125273E-2</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
-        <v>147</v>
+        <v>451</v>
       </c>
       <c r="C178" t="s">
         <v>19</v>
       </c>
       <c r="D178" s="3">
-        <v>0.89058233564377232</v>
+        <v>0.75317685360218445</v>
       </c>
       <c r="E178" s="3">
-        <v>0.79347826086956519</v>
+        <v>0.68478260869565222</v>
       </c>
       <c r="F178" s="3">
-        <v>0.85526315789473684</v>
+        <v>0.67832167832167833</v>
       </c>
       <c r="G178" s="3">
-        <v>0.70652173913043481</v>
+        <v>0.70289855072463769</v>
       </c>
       <c r="H178" s="3">
-        <v>0.77380952380952372</v>
+        <v>0.69039145907473309</v>
       </c>
       <c r="I178" t="s">
-        <v>148</v>
+        <v>452</v>
       </c>
       <c r="J178" s="3">
-        <v>0.86726789224187772</v>
+        <v>0.79783790033529889</v>
       </c>
       <c r="K178" s="3">
-        <v>0.81720430107526887</v>
+        <v>0.70430107526881724</v>
       </c>
       <c r="L178" s="3">
-        <v>0.86419753086419748</v>
+        <v>0.67592592592592593</v>
       </c>
       <c r="M178" s="3">
-        <v>0.75268817204301075</v>
+        <v>0.78494623655913975</v>
       </c>
       <c r="N178" s="3">
-        <v>0.8045977011494253</v>
+        <v>0.72636815920398023</v>
       </c>
       <c r="O178" t="s">
-        <v>74</v>
+        <v>453</v>
       </c>
       <c r="P178" s="3">
-        <f>ABS(D178-J178)</f>
-        <v>2.3314443401894591E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4.466104673311444E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>173</v>
       </c>
@@ -11196,11 +11218,11 @@
         <v>236</v>
       </c>
       <c r="P179" s="3">
-        <f>ABS(D179-J179)</f>
+        <f t="shared" si="3"/>
         <v>0.1328477280610475</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>15</v>
       </c>
@@ -11247,11 +11269,11 @@
         <v>53</v>
       </c>
       <c r="P180" s="3">
-        <f>ABS(D180-J180)</f>
+        <f t="shared" si="3"/>
         <v>0.13296334836397261</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>266</v>
       </c>
@@ -11298,62 +11320,62 @@
         <v>350</v>
       </c>
       <c r="P181" s="3">
-        <f>ABS(D181-J181)</f>
+        <f t="shared" si="3"/>
         <v>0.13296334836397272</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B182" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="C182" t="s">
         <v>19</v>
       </c>
       <c r="D182" s="3">
-        <v>0.8907004830917874</v>
+        <v>0.91939718546523841</v>
       </c>
       <c r="E182" s="3">
-        <v>0.79347826086956519</v>
+        <v>0.79710144927536231</v>
       </c>
       <c r="F182" s="3">
-        <v>0.85526315789473684</v>
+        <v>0.86283185840707965</v>
       </c>
       <c r="G182" s="3">
         <v>0.70652173913043481</v>
       </c>
       <c r="H182" s="3">
-        <v>0.77380952380952372</v>
+        <v>0.77689243027888444</v>
       </c>
       <c r="I182" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="J182" s="3">
-        <v>0.86692103133310205</v>
+        <v>0.87570817435541692</v>
       </c>
       <c r="K182" s="3">
-        <v>0.81720430107526887</v>
+        <v>0.81182795698924726</v>
       </c>
       <c r="L182" s="3">
-        <v>0.86419753086419748</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="M182" s="3">
-        <v>0.75268817204301075</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N182" s="3">
-        <v>0.8045977011494253</v>
+        <v>0.79768786127167635</v>
       </c>
       <c r="O182" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="P182" s="3">
-        <f>ABS(D182-J182)</f>
-        <v>2.3779451758685344E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4.3689011109821485E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>284</v>
       </c>
@@ -11400,62 +11422,62 @@
         <v>468</v>
       </c>
       <c r="P183" s="3">
-        <f>ABS(D183-J183)</f>
+        <f t="shared" si="3"/>
         <v>0.13307896866689795</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B184" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C184" t="s">
         <v>19</v>
       </c>
       <c r="D184" s="3">
-        <v>0.88421550094517964</v>
+        <v>0.79043268220961982</v>
       </c>
       <c r="E184" s="3">
-        <v>0.78804347826086951</v>
+        <v>0.77898550724637683</v>
       </c>
       <c r="F184" s="3">
-        <v>0.85333333333333339</v>
+        <v>0.84070796460176989</v>
       </c>
       <c r="G184" s="3">
-        <v>0.69565217391304346</v>
+        <v>0.68840579710144922</v>
       </c>
       <c r="H184" s="3">
-        <v>0.76646706586826341</v>
+        <v>0.75697211155378474</v>
       </c>
       <c r="I184" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="J184" s="3">
-        <v>0.86657417042432661</v>
+        <v>0.83362238409064637</v>
       </c>
       <c r="K184" s="3">
-        <v>0.81720430107526887</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L184" s="3">
-        <v>0.86419753086419748</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="M184" s="3">
-        <v>0.75268817204301075</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N184" s="3">
-        <v>0.8045977011494253</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="O184" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="P184" s="3">
-        <f>ABS(D184-J184)</f>
-        <v>1.7641330520853038E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4.3189701881026554E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>29</v>
       </c>
@@ -11502,11 +11524,11 @@
         <v>83</v>
       </c>
       <c r="P185" s="3">
-        <f>ABS(D185-J185)</f>
+        <f t="shared" si="3"/>
         <v>0.13354144987859873</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>183</v>
       </c>
@@ -11553,11 +11575,11 @@
         <v>130</v>
       </c>
       <c r="P186" s="3">
-        <f>ABS(D186-J186)</f>
+        <f t="shared" si="3"/>
         <v>0.13317665306980631</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>168</v>
       </c>
@@ -11604,11 +11626,11 @@
         <v>209</v>
       </c>
       <c r="P187" s="3">
-        <f>ABS(D187-J187)</f>
+        <f t="shared" si="3"/>
         <v>5.7459021727655935E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>215</v>
       </c>
@@ -11655,11 +11677,11 @@
         <v>253</v>
       </c>
       <c r="P188" s="3">
-        <f>ABS(D188-J188)</f>
+        <f t="shared" si="3"/>
         <v>0.13510232396808874</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>252</v>
       </c>
@@ -11706,11 +11728,11 @@
         <v>28</v>
       </c>
       <c r="P189" s="3">
-        <f>ABS(D189-J189)</f>
+        <f t="shared" si="3"/>
         <v>0.13539137472540175</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>92</v>
       </c>
@@ -11757,11 +11779,11 @@
         <v>59</v>
       </c>
       <c r="P190" s="3">
-        <f>ABS(D190-J190)</f>
+        <f t="shared" si="3"/>
         <v>0.13562261533125219</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>96</v>
       </c>
@@ -11808,11 +11830,11 @@
         <v>197</v>
       </c>
       <c r="P191" s="3">
-        <f>ABS(D191-J191)</f>
+        <f t="shared" si="3"/>
         <v>0.13562261533125219</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>75</v>
       </c>
@@ -11859,11 +11881,11 @@
         <v>150</v>
       </c>
       <c r="P192" s="3">
-        <f>ABS(D192-J192)</f>
+        <f t="shared" si="3"/>
         <v>0.13562261533125231</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>237</v>
       </c>
@@ -11910,164 +11932,164 @@
         <v>406</v>
       </c>
       <c r="P193" s="3">
-        <f>ABS(D193-J193)</f>
+        <f t="shared" si="3"/>
         <v>0.13073967924873475</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="B194" t="s">
-        <v>353</v>
+        <v>97</v>
       </c>
       <c r="C194" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D194" s="3">
-        <v>0.91241992228523416</v>
+        <v>0.76480781348456206</v>
       </c>
       <c r="E194" s="3">
-        <v>0.8188405797101449</v>
+        <v>0.74094202898550721</v>
       </c>
       <c r="F194" s="3">
-        <v>0.85772357723577231</v>
+        <v>0.77824267782426781</v>
       </c>
       <c r="G194" s="3">
-        <v>0.76449275362318836</v>
+        <v>0.67391304347826086</v>
       </c>
       <c r="H194" s="3">
-        <v>0.80842911877394641</v>
+        <v>0.72233009708737861</v>
       </c>
       <c r="I194" t="s">
-        <v>354</v>
+        <v>98</v>
       </c>
       <c r="J194" s="3">
-        <v>0.8632211816394959</v>
+        <v>0.80778124638686566</v>
       </c>
       <c r="K194" s="3">
-        <v>0.81182795698924726</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="L194" s="3">
-        <v>0.83720930232558144</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="M194" s="3">
-        <v>0.77419354838709675</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N194" s="3">
-        <v>0.80446927374301691</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="O194" t="s">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="P194" s="3">
-        <f>ABS(D194-J194)</f>
-        <v>4.9198740645738259E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.2973432902303599E-2</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B195" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C195" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D195" s="3">
-        <v>0.89608275572358742</v>
+        <v>0.79048519218651547</v>
       </c>
       <c r="E195" s="3">
-        <v>0.81340579710144922</v>
+        <v>0.77173913043478259</v>
       </c>
       <c r="F195" s="3">
-        <v>0.8559670781893004</v>
+        <v>0.83185840707964598</v>
       </c>
       <c r="G195" s="3">
-        <v>0.75362318840579712</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="H195" s="3">
-        <v>0.80154142581888244</v>
+        <v>0.74900398406374513</v>
       </c>
       <c r="I195" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="J195" s="3">
-        <v>0.86316337148803335</v>
+        <v>0.83304428257602037</v>
       </c>
       <c r="K195" s="3">
         <v>0.79032258064516125</v>
       </c>
       <c r="L195" s="3">
-        <v>0.81395348837209303</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="M195" s="3">
-        <v>0.75268817204301075</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N195" s="3">
-        <v>0.78212290502793302</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="O195" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P195" s="3">
-        <f>ABS(D195-J195)</f>
-        <v>3.2919384235554072E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.2559090389504894E-2</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="B196" t="s">
-        <v>400</v>
+        <v>153</v>
       </c>
       <c r="C196" t="s">
         <v>19</v>
       </c>
       <c r="D196" s="3">
-        <v>0.86718914093677801</v>
+        <v>0.78018667296786393</v>
       </c>
       <c r="E196" s="3">
-        <v>0.78079710144927539</v>
+        <v>0.77717391304347827</v>
       </c>
       <c r="F196" s="3">
-        <v>0.85067873303167418</v>
+        <v>0.8283261802575107</v>
       </c>
       <c r="G196" s="3">
-        <v>0.6811594202898551</v>
+        <v>0.69927536231884058</v>
       </c>
       <c r="H196" s="3">
-        <v>0.75653923541247492</v>
+        <v>0.75834970530451873</v>
       </c>
       <c r="I196" t="s">
-        <v>401</v>
+        <v>154</v>
       </c>
       <c r="J196" s="3">
-        <v>0.86298994103364557</v>
+        <v>0.82200254364666447</v>
       </c>
       <c r="K196" s="3">
-        <v>0.80645161290322576</v>
+        <v>0.77956989247311825</v>
       </c>
       <c r="L196" s="3">
-        <v>0.86075949367088611</v>
+        <v>0.80232558139534882</v>
       </c>
       <c r="M196" s="3">
-        <v>0.73118279569892475</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N196" s="3">
-        <v>0.79069767441860472</v>
+        <v>0.77094972067039114</v>
       </c>
       <c r="O196" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="P196" s="3">
-        <f>ABS(D196-J196)</f>
-        <v>4.1991999031324445E-3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4.1815870678800549E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>243</v>
       </c>
@@ -12114,62 +12136,62 @@
         <v>65</v>
       </c>
       <c r="P197" s="3">
-        <f>ABS(D197-J197)</f>
+        <f t="shared" si="3"/>
         <v>5.6521601161973245E-2</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B198" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="C198" t="s">
         <v>15</v>
       </c>
       <c r="D198" s="3">
-        <v>0.86499028565427427</v>
+        <v>0.89967968914093666</v>
       </c>
       <c r="E198" s="3">
-        <v>0.78804347826086951</v>
+        <v>0.82065217391304346</v>
       </c>
       <c r="F198" s="3">
-        <v>0.81422924901185767</v>
+        <v>0.86122448979591837</v>
       </c>
       <c r="G198" s="3">
-        <v>0.74637681159420288</v>
+        <v>0.76449275362318836</v>
       </c>
       <c r="H198" s="3">
-        <v>0.77882797731568998</v>
+        <v>0.80998080614203449</v>
       </c>
       <c r="I198" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="J198" s="3">
-        <v>0.86275870042779512</v>
+        <v>0.85801826800786229</v>
       </c>
       <c r="K198" s="3">
-        <v>0.78494623655913975</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="L198" s="3">
-        <v>0.797752808988764</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="M198" s="3">
-        <v>0.76344086021505375</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N198" s="3">
-        <v>0.78021978021978022</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="O198" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="P198" s="3">
-        <f>ABS(D198-J198)</f>
-        <v>2.2315852264791491E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4.1661421133074361E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>120</v>
       </c>
@@ -12216,11 +12238,11 @@
         <v>236</v>
       </c>
       <c r="P199" s="3">
-        <f>ABS(D199-J199)</f>
+        <f t="shared" si="3"/>
         <v>0.1373569198751301</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>33</v>
       </c>
@@ -12267,62 +12289,62 @@
         <v>92</v>
       </c>
       <c r="P200" s="3">
-        <f>ABS(D200-J200)</f>
+        <f t="shared" si="3"/>
         <v>0.13758816048098033</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="B201" t="s">
-        <v>178</v>
+        <v>387</v>
       </c>
       <c r="C201" t="s">
         <v>19</v>
       </c>
       <c r="D201" s="3">
-        <v>0.8685544003360639</v>
+        <v>0.79393772316740174</v>
       </c>
       <c r="E201" s="3">
-        <v>0.77717391304347827</v>
+        <v>0.77355072463768115</v>
       </c>
       <c r="F201" s="3">
-        <v>0.84931506849315064</v>
+        <v>0.82969432314410485</v>
       </c>
       <c r="G201" s="3">
-        <v>0.67391304347826086</v>
+        <v>0.68840579710144922</v>
       </c>
       <c r="H201" s="3">
-        <v>0.75151515151515147</v>
+        <v>0.75247524752475259</v>
       </c>
       <c r="I201" t="s">
-        <v>179</v>
+        <v>388</v>
       </c>
       <c r="J201" s="3">
-        <v>0.86229621921609434</v>
+        <v>0.83547230893744939</v>
       </c>
       <c r="K201" s="3">
-        <v>0.80107526881720426</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L201" s="3">
-        <v>0.85897435897435892</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="M201" s="3">
-        <v>0.72043010752688175</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N201" s="3">
-        <v>0.78362573099415211</v>
+        <v>0.77966101694915257</v>
       </c>
       <c r="O201" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="P201" s="3">
-        <f>ABS(D201-J201)</f>
-        <v>6.2581811199695636E-3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4.153458577004765E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>246</v>
       </c>
@@ -12369,62 +12391,62 @@
         <v>380</v>
       </c>
       <c r="P202" s="3">
-        <f>ABS(D202-J202)</f>
+        <f t="shared" si="3"/>
         <v>0.13770378078390566</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="C203" t="s">
         <v>19</v>
       </c>
       <c r="D203" s="3">
-        <v>0.86567947910102905</v>
+        <v>0.79167979416089063</v>
       </c>
       <c r="E203" s="3">
-        <v>0.78442028985507251</v>
+        <v>0.77355072463768115</v>
       </c>
       <c r="F203" s="3">
-        <v>0.85201793721973096</v>
+        <v>0.83555555555555561</v>
       </c>
       <c r="G203" s="3">
-        <v>0.68840579710144922</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="H203" s="3">
-        <v>0.76152304609218424</v>
+        <v>0.75049900199600805</v>
       </c>
       <c r="I203" t="s">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="J203" s="3">
-        <v>0.86090877558099199</v>
+        <v>0.83304428257602048</v>
       </c>
       <c r="K203" s="3">
-        <v>0.81182795698924726</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L203" s="3">
-        <v>0.86250000000000004</v>
+        <v>0.82926829268292679</v>
       </c>
       <c r="M203" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.73118279569892475</v>
       </c>
       <c r="N203" s="3">
-        <v>0.79768786127167635</v>
+        <v>0.77714285714285702</v>
       </c>
       <c r="O203" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="P203" s="3">
-        <f>ABS(D203-J203)</f>
-        <v>4.7707035200370562E-3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4.1364488415129852E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>60</v>
       </c>
@@ -12471,11 +12493,11 @@
         <v>56</v>
       </c>
       <c r="P204" s="3">
-        <f>ABS(D204-J204)</f>
+        <f t="shared" si="3"/>
         <v>0.13932246502485834</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>156</v>
       </c>
@@ -12522,11 +12544,11 @@
         <v>160</v>
       </c>
       <c r="P205" s="3">
-        <f>ABS(D205-J205)</f>
+        <f t="shared" si="3"/>
         <v>0.13932246502485834</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>105</v>
       </c>
@@ -12573,11 +12595,11 @@
         <v>214</v>
       </c>
       <c r="P206" s="3">
-        <f>ABS(D206-J206)</f>
+        <f t="shared" si="3"/>
         <v>0.14001618684240946</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -12624,62 +12646,62 @@
         <v>17</v>
       </c>
       <c r="P207" s="3">
-        <f>ABS(D207-J207)</f>
+        <f t="shared" si="3"/>
         <v>0.14031053777428948</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="B208" t="s">
-        <v>414</v>
+        <v>115</v>
       </c>
       <c r="C208" t="s">
         <v>19</v>
       </c>
       <c r="D208" s="3">
-        <v>0.88799621928166361</v>
+        <v>0.79405587061541683</v>
       </c>
       <c r="E208" s="3">
-        <v>0.78985507246376807</v>
+        <v>0.77355072463768115</v>
       </c>
       <c r="F208" s="3">
-        <v>0.85398230088495575</v>
+        <v>0.83856502242152464</v>
       </c>
       <c r="G208" s="3">
-        <v>0.69927536231884058</v>
+        <v>0.67753623188405798</v>
       </c>
       <c r="H208" s="3">
-        <v>0.76892430278884472</v>
+        <v>0.74949899799599196</v>
       </c>
       <c r="I208" t="s">
-        <v>319</v>
+        <v>88</v>
       </c>
       <c r="J208" s="3">
-        <v>0.85905885073418886</v>
+        <v>0.83466296681697294</v>
       </c>
       <c r="K208" s="3">
-        <v>0.81720430107526887</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L208" s="3">
-        <v>0.86419753086419748</v>
+        <v>0.82926829268292679</v>
       </c>
       <c r="M208" s="3">
-        <v>0.75268817204301075</v>
+        <v>0.73118279569892475</v>
       </c>
       <c r="N208" s="3">
-        <v>0.8045977011494253</v>
+        <v>0.77714285714285702</v>
       </c>
       <c r="O208" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="P208" s="3">
-        <f>ABS(D208-J208)</f>
-        <v>2.8937368547474751E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4.0607096201556114E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>267</v>
       </c>
@@ -12726,11 +12748,11 @@
         <v>51</v>
       </c>
       <c r="P209" s="3">
-        <f>ABS(D209-J209)</f>
+        <f t="shared" si="3"/>
         <v>0.14117238987166147</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>111</v>
       </c>
@@ -12777,113 +12799,113 @@
         <v>205</v>
       </c>
       <c r="P210" s="3">
-        <f>ABS(D210-J210)</f>
+        <f t="shared" si="3"/>
         <v>0.14175049138628737</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="B211" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="C211" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D211" s="3">
-        <v>0.89967968914093666</v>
+        <v>0.79108905692081488</v>
       </c>
       <c r="E211" s="3">
-        <v>0.82065217391304346</v>
+        <v>0.77355072463768115</v>
       </c>
       <c r="F211" s="3">
-        <v>0.86122448979591837</v>
+        <v>0.83856502242152464</v>
       </c>
       <c r="G211" s="3">
-        <v>0.76449275362318836</v>
+        <v>0.67753623188405798</v>
       </c>
       <c r="H211" s="3">
-        <v>0.80998080614203449</v>
+        <v>0.74949899799599196</v>
       </c>
       <c r="I211" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="J211" s="3">
-        <v>0.85801826800786229</v>
+        <v>0.83130997803214257</v>
       </c>
       <c r="K211" s="3">
-        <v>0.77419354838709675</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L211" s="3">
-        <v>0.7931034482758621</v>
+        <v>0.82926829268292679</v>
       </c>
       <c r="M211" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.73118279569892475</v>
       </c>
       <c r="N211" s="3">
-        <v>0.76666666666666672</v>
+        <v>0.77714285714285702</v>
       </c>
       <c r="O211" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="P211" s="3">
-        <f>ABS(D211-J211)</f>
-        <v>4.1661421133074361E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.022092111132769E-2</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>211</v>
+        <v>292</v>
       </c>
       <c r="B212" t="s">
-        <v>367</v>
+        <v>479</v>
       </c>
       <c r="C212" t="s">
         <v>19</v>
       </c>
       <c r="D212" s="3">
-        <v>0.85481647763074986</v>
+        <v>0.79580182734719607</v>
       </c>
       <c r="E212" s="3">
-        <v>0.76449275362318836</v>
+        <v>0.76811594202898548</v>
       </c>
       <c r="F212" s="3">
-        <v>0.84112149532710279</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G212" s="3">
-        <v>0.65217391304347827</v>
+        <v>0.67028985507246375</v>
       </c>
       <c r="H212" s="3">
-        <v>0.73469387755102034</v>
+        <v>0.74297188755020083</v>
       </c>
       <c r="I212" t="s">
-        <v>368</v>
+        <v>204</v>
       </c>
       <c r="J212" s="3">
-        <v>0.85796045785639952</v>
+        <v>0.83570354954329973</v>
       </c>
       <c r="K212" s="3">
-        <v>0.80107526881720426</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L212" s="3">
-        <v>0.85</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="M212" s="3">
-        <v>0.73118279569892475</v>
+        <v>0.72043010752688175</v>
       </c>
       <c r="N212" s="3">
-        <v>0.78612716763005785</v>
+        <v>0.77456647398843925</v>
       </c>
       <c r="O212" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="P212" s="3">
-        <f>ABS(D212-J212)</f>
-        <v>3.1439802256496563E-3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3.9901722196103662E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>210</v>
       </c>
@@ -12930,11 +12952,11 @@
         <v>270</v>
       </c>
       <c r="P213" s="3">
-        <f>ABS(D213-J213)</f>
+        <f t="shared" si="3"/>
         <v>0.1379808651677118</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>119</v>
       </c>
@@ -12981,62 +13003,62 @@
         <v>130</v>
       </c>
       <c r="P214" s="3">
-        <f>ABS(D214-J214)</f>
+        <f t="shared" si="3"/>
         <v>0.14279107411261416</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="B215" t="s">
-        <v>318</v>
+        <v>391</v>
       </c>
       <c r="C215" t="s">
         <v>19</v>
       </c>
       <c r="D215" s="3">
-        <v>0.87605019953791219</v>
+        <v>0.79725897920604927</v>
       </c>
       <c r="E215" s="3">
-        <v>0.78985507246376807</v>
+        <v>0.76630434782608692</v>
       </c>
       <c r="F215" s="3">
-        <v>0.85398230088495575</v>
+        <v>0.82959641255605376</v>
       </c>
       <c r="G215" s="3">
-        <v>0.69927536231884058</v>
+        <v>0.67028985507246375</v>
       </c>
       <c r="H215" s="3">
-        <v>0.76892430278884472</v>
+        <v>0.74148296593186358</v>
       </c>
       <c r="I215" t="s">
-        <v>319</v>
+        <v>392</v>
       </c>
       <c r="J215" s="3">
-        <v>0.85582148225228361</v>
+        <v>0.83697537287547696</v>
       </c>
       <c r="K215" s="3">
-        <v>0.80645161290322576</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L215" s="3">
-        <v>0.84337349397590367</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="M215" s="3">
-        <v>0.75268817204301075</v>
+        <v>0.72043010752688175</v>
       </c>
       <c r="N215" s="3">
-        <v>0.79545454545454553</v>
+        <v>0.77456647398843925</v>
       </c>
       <c r="O215" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="P215" s="3">
-        <f>ABS(D215-J215)</f>
-        <v>2.0228717285628584E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3.9716393669427696E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>285</v>
       </c>
@@ -13083,11 +13105,11 @@
         <v>468</v>
       </c>
       <c r="P216" s="3">
-        <f>ABS(D216-J216)</f>
+        <f t="shared" si="3"/>
         <v>0.14440975835356684</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>189</v>
       </c>
@@ -13134,62 +13156,62 @@
         <v>65</v>
       </c>
       <c r="P217" s="3">
-        <f>ABS(D217-J217)</f>
+        <f t="shared" si="3"/>
         <v>0.14545034107989352</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="B218" t="s">
-        <v>66</v>
+        <v>420</v>
       </c>
       <c r="C218" t="s">
         <v>19</v>
       </c>
       <c r="D218" s="3">
-        <v>0.84896817895400123</v>
+        <v>0.79553927746271791</v>
       </c>
       <c r="E218" s="3">
-        <v>0.77536231884057971</v>
+        <v>0.76811594202898548</v>
       </c>
       <c r="F218" s="3">
-        <v>0.84862385321100919</v>
+        <v>0.82743362831858402</v>
       </c>
       <c r="G218" s="3">
-        <v>0.67028985507246375</v>
+        <v>0.67753623188405798</v>
       </c>
       <c r="H218" s="3">
-        <v>0.74898785425101211</v>
+        <v>0.74501992031872499</v>
       </c>
       <c r="I218" t="s">
-        <v>67</v>
+        <v>421</v>
       </c>
       <c r="J218" s="3">
-        <v>0.85374031679963003</v>
+        <v>0.83477858711989827</v>
       </c>
       <c r="K218" s="3">
-        <v>0.80645161290322576</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L218" s="3">
-        <v>0.86075949367088611</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="M218" s="3">
-        <v>0.73118279569892475</v>
+        <v>0.72043010752688175</v>
       </c>
       <c r="N218" s="3">
-        <v>0.79069767441860472</v>
+        <v>0.77456647398843925</v>
       </c>
       <c r="O218" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="P218" s="3">
-        <f>ABS(D218-J218)</f>
-        <v>4.7721378456287988E-3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3.9239309657180366E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>6</v>
       </c>
@@ -13236,11 +13258,11 @@
         <v>35</v>
       </c>
       <c r="P219" s="3">
-        <f>ABS(D219-J219)</f>
+        <f t="shared" si="3"/>
         <v>0.14695340501792098</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>258</v>
       </c>
@@ -13287,11 +13309,11 @@
         <v>431</v>
       </c>
       <c r="P220" s="3">
-        <f>ABS(D220-J220)</f>
+        <f t="shared" si="3"/>
         <v>0.14845646895594866</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44</v>
       </c>
@@ -13338,11 +13360,11 @@
         <v>112</v>
       </c>
       <c r="P221" s="3">
-        <f>ABS(D221-J221)</f>
+        <f t="shared" si="3"/>
         <v>0.14903457047057467</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>240</v>
       </c>
@@ -13389,11 +13411,11 @@
         <v>219</v>
       </c>
       <c r="P222" s="3">
-        <f>ABS(D222-J222)</f>
+        <f t="shared" ref="P222:P285" si="4">ABS(D222-J222)</f>
         <v>0.14949705168227534</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>260</v>
       </c>
@@ -13440,62 +13462,62 @@
         <v>435</v>
       </c>
       <c r="P223" s="3">
-        <f>ABS(D223-J223)</f>
+        <f t="shared" si="4"/>
         <v>0.15024858365128912</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="B224" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="C224" t="s">
         <v>19</v>
       </c>
       <c r="D224" s="3">
-        <v>0.84768168452005876</v>
+        <v>0.77042638101239225</v>
       </c>
       <c r="E224" s="3">
-        <v>0.77536231884057971</v>
+        <v>0.74094202898550721</v>
       </c>
       <c r="F224" s="3">
-        <v>0.84862385321100919</v>
+        <v>0.77593360995850624</v>
       </c>
       <c r="G224" s="3">
-        <v>0.67028985507246375</v>
+        <v>0.67753623188405798</v>
       </c>
       <c r="H224" s="3">
-        <v>0.74898785425101211</v>
+        <v>0.72340425531914898</v>
       </c>
       <c r="I224" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="J224" s="3">
-        <v>0.84865302347092142</v>
+        <v>0.80934212047635556</v>
       </c>
       <c r="K224" s="3">
-        <v>0.80107526881720426</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="L224" s="3">
-        <v>0.85897435897435892</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="M224" s="3">
-        <v>0.72043010752688175</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="N224" s="3">
-        <v>0.78362573099415211</v>
+        <v>0.76344086021505364</v>
       </c>
       <c r="O224" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="P224" s="3">
-        <f>ABS(D224-J224)</f>
-        <v>9.7133895086265465E-4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.8915739463963317E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>89</v>
       </c>
@@ -13542,62 +13564,62 @@
         <v>186</v>
       </c>
       <c r="P225" s="3">
-        <f>ABS(D225-J225)</f>
+        <f t="shared" si="4"/>
         <v>0.15119776568682286</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="B226" t="s">
-        <v>407</v>
+        <v>231</v>
       </c>
       <c r="C226" t="s">
         <v>19</v>
       </c>
       <c r="D226" s="3">
-        <v>0.84845620667926913</v>
+        <v>0.79509294265910513</v>
       </c>
       <c r="E226" s="3">
-        <v>0.77717391304347827</v>
+        <v>0.76811594202898548</v>
       </c>
       <c r="F226" s="3">
-        <v>0.84931506849315064</v>
+        <v>0.8303571428571429</v>
       </c>
       <c r="G226" s="3">
         <v>0.67391304347826086</v>
       </c>
       <c r="H226" s="3">
-        <v>0.75151515151515147</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="I226" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="J226" s="3">
-        <v>0.84749682044166963</v>
+        <v>0.83385362469649682</v>
       </c>
       <c r="K226" s="3">
-        <v>0.80107526881720426</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L226" s="3">
-        <v>0.85</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="M226" s="3">
-        <v>0.73118279569892475</v>
+        <v>0.72043010752688175</v>
       </c>
       <c r="N226" s="3">
-        <v>0.78612716763005785</v>
+        <v>0.77456647398843925</v>
       </c>
       <c r="O226" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="P226" s="3">
-        <f>ABS(D226-J226)</f>
-        <v>9.5938623759950215E-4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.8760682037391692E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>281</v>
       </c>
@@ -13644,11 +13666,11 @@
         <v>464</v>
       </c>
       <c r="P227" s="3">
-        <f>ABS(D227-J227)</f>
+        <f t="shared" si="4"/>
         <v>0.15441091455659617</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>195</v>
       </c>
@@ -13695,11 +13717,11 @@
         <v>236</v>
       </c>
       <c r="P228" s="3">
-        <f>ABS(D228-J228)</f>
+        <f t="shared" si="4"/>
         <v>9.9965369916121594E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>39</v>
       </c>
@@ -13746,91 +13768,91 @@
         <v>103</v>
       </c>
       <c r="P229" s="3">
-        <f>ABS(D229-J229)</f>
+        <f t="shared" si="4"/>
         <v>0.15539368713146029</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B230" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="C230" t="s">
         <v>15</v>
       </c>
       <c r="D230" s="3">
-        <v>0.86908606385213183</v>
+        <v>0.85693000420079812</v>
       </c>
       <c r="E230" s="3">
-        <v>0.79528985507246375</v>
+        <v>0.78804347826086951</v>
       </c>
       <c r="F230" s="3">
-        <v>0.8528138528138528</v>
+        <v>0.83829787234042552</v>
       </c>
       <c r="G230" s="3">
         <v>0.71376811594202894</v>
       </c>
       <c r="H230" s="3">
-        <v>0.77712031558185402</v>
+        <v>0.77103718199608617</v>
       </c>
       <c r="I230" t="s">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="J230" s="3">
-        <v>0.84454850271707715</v>
+        <v>0.81847612440744588</v>
       </c>
       <c r="K230" s="3">
-        <v>0.80107526881720426</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="L230" s="3">
-        <v>0.84146341463414631</v>
+        <v>0.81395348837209303</v>
       </c>
       <c r="M230" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.75268817204301075</v>
       </c>
       <c r="N230" s="3">
-        <v>0.78857142857142848</v>
+        <v>0.78212290502793302</v>
       </c>
       <c r="O230" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="P230" s="3">
-        <f>ABS(D230-J230)</f>
-        <v>2.4537561135054675E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.8453879793352241E-2</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="B231" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="C231" t="s">
         <v>19</v>
       </c>
       <c r="D231" s="3">
-        <v>0.79547363999159837</v>
+        <v>0.79643194706994325</v>
       </c>
       <c r="E231" s="3">
-        <v>0.77173913043478259</v>
+        <v>0.77536231884057971</v>
       </c>
       <c r="F231" s="3">
-        <v>0.83185840707964598</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="G231" s="3">
         <v>0.6811594202898551</v>
       </c>
       <c r="H231" s="3">
-        <v>0.74900398406374513</v>
+        <v>0.752</v>
       </c>
       <c r="I231" t="s">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="J231" s="3">
-        <v>0.84206266620418546</v>
+        <v>0.83420048560527227</v>
       </c>
       <c r="K231" s="3">
         <v>0.79032258064516125</v>
@@ -13848,11 +13870,11 @@
         <v>44</v>
       </c>
       <c r="P231" s="3">
-        <f>ABS(D231-J231)</f>
-        <v>4.6589026212587092E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.7768538535329021E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>97</v>
       </c>
@@ -13899,91 +13921,91 @@
         <v>56</v>
       </c>
       <c r="P232" s="3">
-        <f>ABS(D232-J232)</f>
+        <f t="shared" si="4"/>
         <v>5.2755683699569955E-2</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="B233" t="s">
-        <v>340</v>
+        <v>242</v>
       </c>
       <c r="C233" t="s">
         <v>19</v>
       </c>
       <c r="D233" s="3">
-        <v>0.80766908212560384</v>
+        <v>0.91363421550094503</v>
       </c>
       <c r="E233" s="3">
-        <v>0.77173913043478259</v>
+        <v>0.79710144927536231</v>
       </c>
       <c r="F233" s="3">
-        <v>0.84403669724770647</v>
+        <v>0.86283185840707965</v>
       </c>
       <c r="G233" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.70652173913043481</v>
       </c>
       <c r="H233" s="3">
-        <v>0.74493927125506065</v>
+        <v>0.77689243027888444</v>
       </c>
       <c r="I233" t="s">
-        <v>276</v>
+        <v>110</v>
       </c>
       <c r="J233" s="3">
-        <v>0.83986588044860677</v>
+        <v>0.87674875708174349</v>
       </c>
       <c r="K233" s="3">
-        <v>0.79569892473118276</v>
+        <v>0.81182795698924726</v>
       </c>
       <c r="L233" s="3">
-        <v>0.84810126582278478</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="M233" s="3">
-        <v>0.72043010752688175</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N233" s="3">
-        <v>0.77906976744186063</v>
+        <v>0.79768786127167635</v>
       </c>
       <c r="O233" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="P233" s="3">
-        <f>ABS(D233-J233)</f>
-        <v>3.2196798323002929E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.6885458419201544E-2</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B234" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="C234" t="s">
         <v>19</v>
       </c>
       <c r="D234" s="3">
-        <v>0.81116099558916188</v>
+        <v>0.79585433732409161</v>
       </c>
       <c r="E234" s="3">
-        <v>0.77173913043478259</v>
+        <v>0.76811594202898548</v>
       </c>
       <c r="F234" s="3">
-        <v>0.84403669724770647</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G234" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.67028985507246375</v>
       </c>
       <c r="H234" s="3">
-        <v>0.74493927125506065</v>
+        <v>0.74297188755020083</v>
       </c>
       <c r="I234" t="s">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="J234" s="3">
-        <v>0.83905653832813043</v>
+        <v>0.83258180136431958</v>
       </c>
       <c r="K234" s="3">
         <v>0.79569892473118276</v>
@@ -14001,22 +14023,22 @@
         <v>205</v>
       </c>
       <c r="P234" s="3">
-        <f>ABS(D234-J234)</f>
-        <v>2.7895542738968548E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.6727464040227975E-2</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="B235" t="s">
-        <v>391</v>
+        <v>483</v>
       </c>
       <c r="C235" t="s">
         <v>19</v>
       </c>
       <c r="D235" s="3">
-        <v>0.79725897920604927</v>
+        <v>0.79708832178113842</v>
       </c>
       <c r="E235" s="3">
         <v>0.76630434782608692</v>
@@ -14034,26 +14056,26 @@
         <v>392</v>
       </c>
       <c r="J235" s="3">
-        <v>0.83697537287547696</v>
+        <v>0.83350676378772115</v>
       </c>
       <c r="K235" s="3">
-        <v>0.79032258064516125</v>
+        <v>0.79569892473118276</v>
       </c>
       <c r="L235" s="3">
-        <v>0.83750000000000002</v>
+        <v>0.84810126582278478</v>
       </c>
       <c r="M235" s="3">
         <v>0.72043010752688175</v>
       </c>
       <c r="N235" s="3">
-        <v>0.77456647398843925</v>
+        <v>0.77906976744186063</v>
       </c>
       <c r="O235" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="P235" s="3">
-        <f>ABS(D235-J235)</f>
-        <v>3.9716393669427696E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.641844200658273E-2</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
@@ -14103,40 +14125,40 @@
         <v>233</v>
       </c>
       <c r="P236" s="3">
-        <f>ABS(D236-J236)</f>
+        <f t="shared" si="4"/>
         <v>3.6135114891392317E-2</v>
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="B237" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="C237" t="s">
         <v>19</v>
       </c>
       <c r="D237" s="3">
-        <v>0.79580182734719607</v>
+        <v>0.787859693341735</v>
       </c>
       <c r="E237" s="3">
-        <v>0.76811594202898548</v>
+        <v>0.76992753623188404</v>
       </c>
       <c r="F237" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.83710407239819007</v>
       </c>
       <c r="G237" s="3">
         <v>0.67028985507246375</v>
       </c>
       <c r="H237" s="3">
-        <v>0.74297188755020083</v>
+        <v>0.74446680080482908</v>
       </c>
       <c r="I237" t="s">
-        <v>204</v>
+        <v>425</v>
       </c>
       <c r="J237" s="3">
-        <v>0.83570354954329973</v>
+        <v>0.82304312637299104</v>
       </c>
       <c r="K237" s="3">
         <v>0.79032258064516125</v>
@@ -14154,317 +14176,317 @@
         <v>233</v>
       </c>
       <c r="P237" s="3">
-        <f>ABS(D237-J237)</f>
-        <v>3.9901722196103662E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.5183433031256039E-2</v>
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="B238" t="s">
-        <v>387</v>
+        <v>459</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D238" s="3">
-        <v>0.79393772316740174</v>
+        <v>0.90483223062381846</v>
       </c>
       <c r="E238" s="3">
-        <v>0.77355072463768115</v>
+        <v>0.81521739130434778</v>
       </c>
       <c r="F238" s="3">
-        <v>0.82969432314410485</v>
+        <v>0.84251968503937003</v>
       </c>
       <c r="G238" s="3">
-        <v>0.68840579710144922</v>
+        <v>0.77536231884057971</v>
       </c>
       <c r="H238" s="3">
-        <v>0.75247524752475259</v>
+        <v>0.8075471698113208</v>
       </c>
       <c r="I238" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="J238" s="3">
-        <v>0.83547230893744939</v>
+        <v>0.8716614637530351</v>
       </c>
       <c r="K238" s="3">
-        <v>0.79032258064516125</v>
+        <v>0.77956989247311825</v>
       </c>
       <c r="L238" s="3">
-        <v>0.8214285714285714</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="M238" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="N238" s="3">
-        <v>0.77966101694915257</v>
+        <v>0.77595628415300533</v>
       </c>
       <c r="O238" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="P238" s="3">
-        <f>ABS(D238-J238)</f>
-        <v>4.153458577004765E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.3170766870783353E-2</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="B239" t="s">
-        <v>420</v>
+        <v>273</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D239" s="3">
-        <v>0.79553927746271791</v>
+        <v>0.89608275572358742</v>
       </c>
       <c r="E239" s="3">
-        <v>0.76811594202898548</v>
+        <v>0.81340579710144922</v>
       </c>
       <c r="F239" s="3">
-        <v>0.82743362831858402</v>
+        <v>0.8559670781893004</v>
       </c>
       <c r="G239" s="3">
-        <v>0.67753623188405798</v>
+        <v>0.75362318840579712</v>
       </c>
       <c r="H239" s="3">
-        <v>0.74501992031872499</v>
+        <v>0.80154142581888244</v>
       </c>
       <c r="I239" t="s">
-        <v>421</v>
+        <v>274</v>
       </c>
       <c r="J239" s="3">
-        <v>0.83477858711989827</v>
+        <v>0.86316337148803335</v>
       </c>
       <c r="K239" s="3">
         <v>0.79032258064516125</v>
       </c>
       <c r="L239" s="3">
-        <v>0.83750000000000002</v>
+        <v>0.81395348837209303</v>
       </c>
       <c r="M239" s="3">
-        <v>0.72043010752688175</v>
+        <v>0.75268817204301075</v>
       </c>
       <c r="N239" s="3">
-        <v>0.77456647398843925</v>
+        <v>0.78212290502793302</v>
       </c>
       <c r="O239" t="s">
-        <v>233</v>
+        <v>56</v>
       </c>
       <c r="P239" s="3">
-        <f>ABS(D239-J239)</f>
-        <v>3.9239309657180366E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.2919384235554072E-2</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="B240" t="s">
-        <v>115</v>
+        <v>340</v>
       </c>
       <c r="C240" t="s">
         <v>19</v>
       </c>
       <c r="D240" s="3">
-        <v>0.79405587061541683</v>
+        <v>0.80766908212560384</v>
       </c>
       <c r="E240" s="3">
-        <v>0.77355072463768115</v>
+        <v>0.77173913043478259</v>
       </c>
       <c r="F240" s="3">
-        <v>0.83856502242152464</v>
+        <v>0.84403669724770647</v>
       </c>
       <c r="G240" s="3">
-        <v>0.67753623188405798</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H240" s="3">
-        <v>0.74949899799599196</v>
+        <v>0.74493927125506065</v>
       </c>
       <c r="I240" t="s">
-        <v>88</v>
+        <v>276</v>
       </c>
       <c r="J240" s="3">
-        <v>0.83466296681697294</v>
+        <v>0.83986588044860677</v>
       </c>
       <c r="K240" s="3">
-        <v>0.79032258064516125</v>
+        <v>0.79569892473118276</v>
       </c>
       <c r="L240" s="3">
-        <v>0.82926829268292679</v>
+        <v>0.84810126582278478</v>
       </c>
       <c r="M240" s="3">
-        <v>0.73118279569892475</v>
+        <v>0.72043010752688175</v>
       </c>
       <c r="N240" s="3">
-        <v>0.77714285714285702</v>
+        <v>0.77906976744186063</v>
       </c>
       <c r="O240" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="P240" s="3">
-        <f>ABS(D240-J240)</f>
-        <v>4.0607096201556114E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.2196798323002929E-2</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="B241" t="s">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="C241" t="s">
         <v>19</v>
       </c>
       <c r="D241" s="3">
-        <v>0.79643194706994325</v>
+        <v>0.90561331653014066</v>
       </c>
       <c r="E241" s="3">
-        <v>0.77536231884057971</v>
+        <v>0.79347826086956519</v>
       </c>
       <c r="F241" s="3">
-        <v>0.8392857142857143</v>
+        <v>0.8584070796460177</v>
       </c>
       <c r="G241" s="3">
-        <v>0.6811594202898551</v>
+        <v>0.70289855072463769</v>
       </c>
       <c r="H241" s="3">
-        <v>0.752</v>
+        <v>0.77290836653386452</v>
       </c>
       <c r="I241" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="J241" s="3">
-        <v>0.83420048560527227</v>
+        <v>0.87582379465834193</v>
       </c>
       <c r="K241" s="3">
-        <v>0.79032258064516125</v>
+        <v>0.81182795698924726</v>
       </c>
       <c r="L241" s="3">
-        <v>0.82926829268292679</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="M241" s="3">
-        <v>0.73118279569892475</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N241" s="3">
-        <v>0.77714285714285702</v>
+        <v>0.79768786127167635</v>
       </c>
       <c r="O241" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="P241" s="3">
-        <f>ABS(D241-J241)</f>
-        <v>3.7768538535329021E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.978952187179873E-2</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>231</v>
+        <v>414</v>
       </c>
       <c r="C242" t="s">
         <v>19</v>
       </c>
       <c r="D242" s="3">
-        <v>0.79509294265910513</v>
+        <v>0.88799621928166361</v>
       </c>
       <c r="E242" s="3">
-        <v>0.76811594202898548</v>
+        <v>0.78985507246376807</v>
       </c>
       <c r="F242" s="3">
-        <v>0.8303571428571429</v>
+        <v>0.85398230088495575</v>
       </c>
       <c r="G242" s="3">
-        <v>0.67391304347826086</v>
+        <v>0.69927536231884058</v>
       </c>
       <c r="H242" s="3">
-        <v>0.74399999999999999</v>
+        <v>0.76892430278884472</v>
       </c>
       <c r="I242" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="J242" s="3">
-        <v>0.83385362469649682</v>
+        <v>0.85905885073418886</v>
       </c>
       <c r="K242" s="3">
-        <v>0.79032258064516125</v>
+        <v>0.81720430107526887</v>
       </c>
       <c r="L242" s="3">
-        <v>0.83750000000000002</v>
+        <v>0.86419753086419748</v>
       </c>
       <c r="M242" s="3">
-        <v>0.72043010752688175</v>
+        <v>0.75268817204301075</v>
       </c>
       <c r="N242" s="3">
-        <v>0.77456647398843925</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="O242" t="s">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="P242" s="3">
-        <f>ABS(D242-J242)</f>
-        <v>3.8760682037391692E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.8937368547474751E-2</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B243" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="C243" t="s">
         <v>19</v>
       </c>
       <c r="D243" s="3">
-        <v>0.79043268220961982</v>
+        <v>0.90607277882797732</v>
       </c>
       <c r="E243" s="3">
-        <v>0.77898550724637683</v>
+        <v>0.79347826086956519</v>
       </c>
       <c r="F243" s="3">
-        <v>0.84070796460176989</v>
+        <v>0.8584070796460177</v>
       </c>
       <c r="G243" s="3">
-        <v>0.68840579710144922</v>
+        <v>0.70289855072463769</v>
       </c>
       <c r="H243" s="3">
-        <v>0.75697211155378474</v>
+        <v>0.77290836653386452</v>
       </c>
       <c r="I243" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="J243" s="3">
-        <v>0.83362238409064637</v>
+        <v>0.87732685859636961</v>
       </c>
       <c r="K243" s="3">
-        <v>0.79032258064516125</v>
+        <v>0.81182795698924726</v>
       </c>
       <c r="L243" s="3">
-        <v>0.8214285714285714</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="M243" s="3">
         <v>0.74193548387096775</v>
       </c>
       <c r="N243" s="3">
-        <v>0.77966101694915257</v>
+        <v>0.79768786127167635</v>
       </c>
       <c r="O243" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="P243" s="3">
-        <f>ABS(D243-J243)</f>
-        <v>4.3189701881026554E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2.8745920231607713E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>26</v>
       </c>
@@ -14511,419 +14533,419 @@
         <v>77</v>
       </c>
       <c r="P244" s="3">
-        <f>ABS(D244-J244)</f>
+        <f t="shared" si="4"/>
         <v>0.16288973904781756</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="B245" t="s">
-        <v>483</v>
+        <v>336</v>
       </c>
       <c r="C245" t="s">
         <v>19</v>
       </c>
       <c r="D245" s="3">
-        <v>0.79708832178113842</v>
+        <v>0.90544265910522992</v>
       </c>
       <c r="E245" s="3">
-        <v>0.76630434782608692</v>
+        <v>0.79347826086956519</v>
       </c>
       <c r="F245" s="3">
-        <v>0.82959641255605376</v>
+        <v>0.8584070796460177</v>
       </c>
       <c r="G245" s="3">
-        <v>0.67028985507246375</v>
+        <v>0.70289855072463769</v>
       </c>
       <c r="H245" s="3">
-        <v>0.74148296593186358</v>
+        <v>0.77290836653386452</v>
       </c>
       <c r="I245" t="s">
-        <v>392</v>
+        <v>37</v>
       </c>
       <c r="J245" s="3">
-        <v>0.83350676378772115</v>
+        <v>0.87697999768759394</v>
       </c>
       <c r="K245" s="3">
-        <v>0.79569892473118276</v>
+        <v>0.81182795698924726</v>
       </c>
       <c r="L245" s="3">
-        <v>0.84810126582278478</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="M245" s="3">
-        <v>0.72043010752688175</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N245" s="3">
-        <v>0.77906976744186063</v>
+        <v>0.79768786127167635</v>
       </c>
       <c r="O245" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="P245" s="3">
-        <f>ABS(D245-J245)</f>
-        <v>3.641844200658273E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.8462661417635982E-2</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="B246" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="C246" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D246" s="3">
-        <v>0.84774732199117842</v>
+        <v>0.81116099558916188</v>
       </c>
       <c r="E246" s="3">
-        <v>0.79528985507246375</v>
+        <v>0.77173913043478259</v>
       </c>
       <c r="F246" s="3">
-        <v>0.8528138528138528</v>
+        <v>0.84403669724770647</v>
       </c>
       <c r="G246" s="3">
-        <v>0.71376811594202894</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H246" s="3">
-        <v>0.77712031558185402</v>
+        <v>0.74493927125506065</v>
       </c>
       <c r="I246" t="s">
-        <v>202</v>
+        <v>276</v>
       </c>
       <c r="J246" s="3">
-        <v>0.83339114348479604</v>
+        <v>0.83905653832813043</v>
       </c>
       <c r="K246" s="3">
-        <v>0.80107526881720426</v>
+        <v>0.79569892473118276</v>
       </c>
       <c r="L246" s="3">
-        <v>0.84146341463414631</v>
+        <v>0.84810126582278478</v>
       </c>
       <c r="M246" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.72043010752688175</v>
       </c>
       <c r="N246" s="3">
-        <v>0.78857142857142848</v>
+        <v>0.77906976744186063</v>
       </c>
       <c r="O246" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="P246" s="3">
-        <f>ABS(D246-J246)</f>
-        <v>1.4356178506382378E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.7895542738968548E-2</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="B247" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="C247" t="s">
         <v>19</v>
       </c>
       <c r="D247" s="3">
-        <v>0.78520793950850665</v>
+        <v>0.89656847300987175</v>
       </c>
       <c r="E247" s="3">
-        <v>0.78260869565217395</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F247" s="3">
-        <v>0.82499999999999996</v>
+        <v>0.85462555066079293</v>
       </c>
       <c r="G247" s="3">
-        <v>0.71739130434782605</v>
+        <v>0.70289855072463769</v>
       </c>
       <c r="H247" s="3">
-        <v>0.7674418604651162</v>
+        <v>0.77137176938369778</v>
       </c>
       <c r="I247" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="J247" s="3">
-        <v>0.83321771303040826</v>
+        <v>0.87015839981500753</v>
       </c>
       <c r="K247" s="3">
-        <v>0.80107526881720426</v>
+        <v>0.81720430107526887</v>
       </c>
       <c r="L247" s="3">
-        <v>0.81818181818181823</v>
+        <v>0.86419753086419748</v>
       </c>
       <c r="M247" s="3">
-        <v>0.77419354838709675</v>
+        <v>0.75268817204301075</v>
       </c>
       <c r="N247" s="3">
-        <v>0.79558011049723765</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="O247" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P247" s="3">
-        <f>ABS(D247-J247)</f>
-        <v>4.8009773521901611E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.6410073194864214E-2</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="B248" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="C248" t="s">
         <v>19</v>
       </c>
       <c r="D248" s="3">
-        <v>0.79167979416089063</v>
+        <v>0.89673913043478259</v>
       </c>
       <c r="E248" s="3">
-        <v>0.77355072463768115</v>
+        <v>0.79528985507246375</v>
       </c>
       <c r="F248" s="3">
-        <v>0.83555555555555561</v>
+        <v>0.8590308370044053</v>
       </c>
       <c r="G248" s="3">
-        <v>0.6811594202898551</v>
+        <v>0.70652173913043481</v>
       </c>
       <c r="H248" s="3">
-        <v>0.75049900199600805</v>
+        <v>0.77534791252485091</v>
       </c>
       <c r="I248" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="J248" s="3">
-        <v>0.83304428257602048</v>
+        <v>0.87073650132963343</v>
       </c>
       <c r="K248" s="3">
-        <v>0.79032258064516125</v>
+        <v>0.81720430107526887</v>
       </c>
       <c r="L248" s="3">
-        <v>0.82926829268292679</v>
+        <v>0.86419753086419748</v>
       </c>
       <c r="M248" s="3">
-        <v>0.73118279569892475</v>
+        <v>0.75268817204301075</v>
       </c>
       <c r="N248" s="3">
-        <v>0.77714285714285702</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="O248" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="P248" s="3">
-        <f>ABS(D248-J248)</f>
-        <v>4.1364488415129852E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.6002629105149166E-2</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B249" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="C249" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D249" s="3">
-        <v>0.79048519218651547</v>
+        <v>0.86908606385213183</v>
       </c>
       <c r="E249" s="3">
-        <v>0.77173913043478259</v>
+        <v>0.79528985507246375</v>
       </c>
       <c r="F249" s="3">
-        <v>0.83185840707964598</v>
+        <v>0.8528138528138528</v>
       </c>
       <c r="G249" s="3">
-        <v>0.6811594202898551</v>
+        <v>0.71376811594202894</v>
       </c>
       <c r="H249" s="3">
-        <v>0.74900398406374513</v>
+        <v>0.77712031558185402</v>
       </c>
       <c r="I249" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="J249" s="3">
-        <v>0.83304428257602037</v>
+        <v>0.84454850271707715</v>
       </c>
       <c r="K249" s="3">
-        <v>0.79032258064516125</v>
+        <v>0.80107526881720426</v>
       </c>
       <c r="L249" s="3">
-        <v>0.8214285714285714</v>
+        <v>0.84146341463414631</v>
       </c>
       <c r="M249" s="3">
         <v>0.74193548387096775</v>
       </c>
       <c r="N249" s="3">
-        <v>0.77966101694915257</v>
+        <v>0.78857142857142848</v>
       </c>
       <c r="O249" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="P249" s="3">
-        <f>ABS(D249-J249)</f>
-        <v>4.2559090389504894E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.4537561135054675E-2</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B250" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="C250" t="s">
         <v>19</v>
       </c>
       <c r="D250" s="3">
-        <v>0.79585433732409161</v>
+        <v>0.88421550094517964</v>
       </c>
       <c r="E250" s="3">
-        <v>0.76811594202898548</v>
+        <v>0.78804347826086951</v>
       </c>
       <c r="F250" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.85333333333333339</v>
       </c>
       <c r="G250" s="3">
-        <v>0.67028985507246375</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="H250" s="3">
-        <v>0.74297188755020083</v>
+        <v>0.76646706586826341</v>
       </c>
       <c r="I250" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="J250" s="3">
-        <v>0.83258180136431958</v>
+        <v>0.86657417042432661</v>
       </c>
       <c r="K250" s="3">
-        <v>0.79569892473118276</v>
+        <v>0.81720430107526887</v>
       </c>
       <c r="L250" s="3">
-        <v>0.84810126582278478</v>
+        <v>0.86419753086419748</v>
       </c>
       <c r="M250" s="3">
-        <v>0.72043010752688175</v>
+        <v>0.75268817204301075</v>
       </c>
       <c r="N250" s="3">
-        <v>0.77906976744186063</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="O250" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="P250" s="3">
-        <f>ABS(D250-J250)</f>
-        <v>3.6727464040227975E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.7641330520853038E-2</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B251" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D251" s="3">
-        <v>0.79108905692081488</v>
+        <v>0.84774732199117842</v>
       </c>
       <c r="E251" s="3">
-        <v>0.77355072463768115</v>
+        <v>0.79528985507246375</v>
       </c>
       <c r="F251" s="3">
-        <v>0.83856502242152464</v>
+        <v>0.8528138528138528</v>
       </c>
       <c r="G251" s="3">
-        <v>0.67753623188405798</v>
+        <v>0.71376811594202894</v>
       </c>
       <c r="H251" s="3">
-        <v>0.74949899799599196</v>
+        <v>0.77712031558185402</v>
       </c>
       <c r="I251" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="J251" s="3">
-        <v>0.83130997803214257</v>
+        <v>0.83339114348479604</v>
       </c>
       <c r="K251" s="3">
-        <v>0.79032258064516125</v>
+        <v>0.80107526881720426</v>
       </c>
       <c r="L251" s="3">
-        <v>0.82926829268292679</v>
+        <v>0.84146341463414631</v>
       </c>
       <c r="M251" s="3">
-        <v>0.73118279569892475</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N251" s="3">
-        <v>0.77714285714285702</v>
+        <v>0.78857142857142848</v>
       </c>
       <c r="O251" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="P251" s="3">
-        <f>ABS(D251-J251)</f>
-        <v>4.022092111132769E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.4356178506382378E-2</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="B252" t="s">
-        <v>440</v>
+        <v>315</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D252" s="3">
-        <v>0.78166351606805295</v>
+        <v>0.79011762234824612</v>
       </c>
       <c r="E252" s="3">
-        <v>0.77536231884057971</v>
+        <v>0.76449275362318836</v>
       </c>
       <c r="F252" s="3">
-        <v>0.82203389830508478</v>
+        <v>0.78294573643410847</v>
       </c>
       <c r="G252" s="3">
-        <v>0.70289855072463769</v>
+        <v>0.73188405797101452</v>
       </c>
       <c r="H252" s="3">
-        <v>0.75781250000000011</v>
+        <v>0.75655430711610494</v>
       </c>
       <c r="I252" t="s">
-        <v>441</v>
+        <v>316</v>
       </c>
       <c r="J252" s="3">
-        <v>0.82969129379118978</v>
+        <v>0.80234709214938149</v>
       </c>
       <c r="K252" s="3">
-        <v>0.77419354838709675</v>
+        <v>0.75806451612903225</v>
       </c>
       <c r="L252" s="3">
-        <v>0.7931034482758621</v>
+        <v>0.75531914893617025</v>
       </c>
       <c r="M252" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="N252" s="3">
-        <v>0.76666666666666672</v>
+        <v>0.7593582887700534</v>
       </c>
       <c r="O252" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="P252" s="3">
-        <f>ABS(D252-J252)</f>
-        <v>4.8027777723136822E-2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.2229469801135373E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>129</v>
       </c>
@@ -14970,368 +14992,368 @@
         <v>250</v>
       </c>
       <c r="P253" s="3">
-        <f>ABS(D253-J253)</f>
+        <f t="shared" si="4"/>
         <v>0.16950736899115937</v>
       </c>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>253</v>
+        <v>85</v>
       </c>
       <c r="B254" t="s">
-        <v>424</v>
+        <v>178</v>
       </c>
       <c r="C254" t="s">
         <v>19</v>
       </c>
       <c r="D254" s="3">
-        <v>0.787859693341735</v>
+        <v>0.8685544003360639</v>
       </c>
       <c r="E254" s="3">
-        <v>0.76992753623188404</v>
+        <v>0.77717391304347827</v>
       </c>
       <c r="F254" s="3">
-        <v>0.83710407239819007</v>
+        <v>0.84931506849315064</v>
       </c>
       <c r="G254" s="3">
-        <v>0.67028985507246375</v>
+        <v>0.67391304347826086</v>
       </c>
       <c r="H254" s="3">
-        <v>0.74446680080482908</v>
+        <v>0.75151515151515147</v>
       </c>
       <c r="I254" t="s">
-        <v>425</v>
+        <v>179</v>
       </c>
       <c r="J254" s="3">
-        <v>0.82304312637299104</v>
+        <v>0.86229621921609434</v>
       </c>
       <c r="K254" s="3">
-        <v>0.79032258064516125</v>
+        <v>0.80107526881720426</v>
       </c>
       <c r="L254" s="3">
-        <v>0.83750000000000002</v>
+        <v>0.85897435897435892</v>
       </c>
       <c r="M254" s="3">
         <v>0.72043010752688175</v>
       </c>
       <c r="N254" s="3">
-        <v>0.77456647398843925</v>
+        <v>0.78362573099415211</v>
       </c>
       <c r="O254" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="P254" s="3">
-        <f>ABS(D254-J254)</f>
-        <v>3.5183433031256039E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.2581811199695636E-3</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B255" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="C255" t="s">
         <v>19</v>
       </c>
       <c r="D255" s="3">
-        <v>0.78018667296786393</v>
+        <v>0.84896817895400123</v>
       </c>
       <c r="E255" s="3">
-        <v>0.77717391304347827</v>
+        <v>0.77536231884057971</v>
       </c>
       <c r="F255" s="3">
-        <v>0.8283261802575107</v>
+        <v>0.84862385321100919</v>
       </c>
       <c r="G255" s="3">
-        <v>0.69927536231884058</v>
+        <v>0.67028985507246375</v>
       </c>
       <c r="H255" s="3">
-        <v>0.75834970530451873</v>
+        <v>0.74898785425101211</v>
       </c>
       <c r="I255" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="J255" s="3">
-        <v>0.82200254364666447</v>
+        <v>0.85374031679963003</v>
       </c>
       <c r="K255" s="3">
-        <v>0.77956989247311825</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="L255" s="3">
-        <v>0.80232558139534882</v>
+        <v>0.86075949367088611</v>
       </c>
       <c r="M255" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.73118279569892475</v>
       </c>
       <c r="N255" s="3">
-        <v>0.77094972067039114</v>
+        <v>0.79069767441860472</v>
       </c>
       <c r="O255" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="P255" s="3">
-        <f>ABS(D255-J255)</f>
-        <v>4.1815870678800549E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.7721378456287988E-3</v>
       </c>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B256" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C256" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D256" s="3">
-        <v>0.85693000420079812</v>
+        <v>0.86567947910102905</v>
       </c>
       <c r="E256" s="3">
-        <v>0.78804347826086951</v>
+        <v>0.78442028985507251</v>
       </c>
       <c r="F256" s="3">
-        <v>0.83829787234042552</v>
+        <v>0.85201793721973096</v>
       </c>
       <c r="G256" s="3">
-        <v>0.71376811594202894</v>
+        <v>0.68840579710144922</v>
       </c>
       <c r="H256" s="3">
-        <v>0.77103718199608617</v>
+        <v>0.76152304609218424</v>
       </c>
       <c r="I256" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="J256" s="3">
-        <v>0.81847612440744588</v>
+        <v>0.86090877558099199</v>
       </c>
       <c r="K256" s="3">
-        <v>0.79032258064516125</v>
+        <v>0.81182795698924726</v>
       </c>
       <c r="L256" s="3">
-        <v>0.81395348837209303</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="M256" s="3">
-        <v>0.75268817204301075</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="N256" s="3">
-        <v>0.78212290502793302</v>
+        <v>0.79768786127167635</v>
       </c>
       <c r="O256" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="P256" s="3">
-        <f>ABS(D256-J256)</f>
-        <v>3.8453879793352241E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.7707035200370562E-3</v>
       </c>
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="B257" t="s">
-        <v>169</v>
+        <v>327</v>
       </c>
       <c r="C257" t="s">
         <v>19</v>
       </c>
       <c r="D257" s="3">
-        <v>0.77042638101239225</v>
+        <v>0.8822726318000419</v>
       </c>
       <c r="E257" s="3">
-        <v>0.74094202898550721</v>
+        <v>0.78804347826086951</v>
       </c>
       <c r="F257" s="3">
-        <v>0.77593360995850624</v>
+        <v>0.84716157205240172</v>
       </c>
       <c r="G257" s="3">
-        <v>0.67753623188405798</v>
+        <v>0.70289855072463769</v>
       </c>
       <c r="H257" s="3">
-        <v>0.72340425531914898</v>
+        <v>0.76831683168316833</v>
       </c>
       <c r="I257" t="s">
-        <v>170</v>
+        <v>328</v>
       </c>
       <c r="J257" s="3">
-        <v>0.80934212047635556</v>
+        <v>0.87784714995953295</v>
       </c>
       <c r="K257" s="3">
-        <v>0.76344086021505375</v>
+        <v>0.82258064516129037</v>
       </c>
       <c r="L257" s="3">
-        <v>0.76344086021505375</v>
+        <v>0.875</v>
       </c>
       <c r="M257" s="3">
-        <v>0.76344086021505375</v>
+        <v>0.75268817204301075</v>
       </c>
       <c r="N257" s="3">
-        <v>0.76344086021505364</v>
+        <v>0.80924855491329473</v>
       </c>
       <c r="O257" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="P257" s="3">
-        <f>ABS(D257-J257)</f>
-        <v>3.8915739463963317E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.4254818405089491E-3</v>
       </c>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="B258" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="C258" t="s">
         <v>19</v>
       </c>
       <c r="D258" s="3">
-        <v>0.76480781348456206</v>
+        <v>0.86718914093677801</v>
       </c>
       <c r="E258" s="3">
-        <v>0.74094202898550721</v>
+        <v>0.78079710144927539</v>
       </c>
       <c r="F258" s="3">
-        <v>0.77824267782426781</v>
+        <v>0.85067873303167418</v>
       </c>
       <c r="G258" s="3">
-        <v>0.67391304347826086</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="H258" s="3">
-        <v>0.72233009708737861</v>
+        <v>0.75653923541247492</v>
       </c>
       <c r="I258" t="s">
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="J258" s="3">
-        <v>0.80778124638686566</v>
+        <v>0.86298994103364557</v>
       </c>
       <c r="K258" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="L258" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.86075949367088611</v>
       </c>
       <c r="M258" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.73118279569892475</v>
       </c>
       <c r="N258" s="3">
-        <v>0.74193548387096775</v>
+        <v>0.79069767441860472</v>
       </c>
       <c r="O258" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="P258" s="3">
-        <f>ABS(D258-J258)</f>
-        <v>4.2973432902303599E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.1991999031324445E-3</v>
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="B259" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="C259" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D259" s="3">
-        <v>0.79011762234824612</v>
+        <v>0.85481647763074986</v>
       </c>
       <c r="E259" s="3">
         <v>0.76449275362318836</v>
       </c>
       <c r="F259" s="3">
-        <v>0.78294573643410847</v>
+        <v>0.84112149532710279</v>
       </c>
       <c r="G259" s="3">
-        <v>0.73188405797101452</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="H259" s="3">
-        <v>0.75655430711610494</v>
+        <v>0.73469387755102034</v>
       </c>
       <c r="I259" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="J259" s="3">
-        <v>0.80234709214938149</v>
+        <v>0.85796045785639952</v>
       </c>
       <c r="K259" s="3">
-        <v>0.75806451612903225</v>
+        <v>0.80107526881720426</v>
       </c>
       <c r="L259" s="3">
-        <v>0.75531914893617025</v>
+        <v>0.85</v>
       </c>
       <c r="M259" s="3">
-        <v>0.76344086021505375</v>
+        <v>0.73118279569892475</v>
       </c>
       <c r="N259" s="3">
-        <v>0.7593582887700534</v>
+        <v>0.78612716763005785</v>
       </c>
       <c r="O259" t="s">
-        <v>317</v>
+        <v>33</v>
       </c>
       <c r="P259" s="3">
-        <f>ABS(D259-J259)</f>
-        <v>1.2229469801135373E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.1439802256496563E-3</v>
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>274</v>
+        <v>3</v>
       </c>
       <c r="B260" t="s">
-        <v>451</v>
+        <v>26</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D260" s="3">
-        <v>0.75317685360218445</v>
+        <v>0.86499028565427427</v>
       </c>
       <c r="E260" s="3">
-        <v>0.68478260869565222</v>
+        <v>0.78804347826086951</v>
       </c>
       <c r="F260" s="3">
-        <v>0.67832167832167833</v>
+        <v>0.81422924901185767</v>
       </c>
       <c r="G260" s="3">
-        <v>0.70289855072463769</v>
+        <v>0.74637681159420288</v>
       </c>
       <c r="H260" s="3">
-        <v>0.69039145907473309</v>
+        <v>0.77882797731568998</v>
       </c>
       <c r="I260" t="s">
-        <v>452</v>
+        <v>27</v>
       </c>
       <c r="J260" s="3">
-        <v>0.79783790033529889</v>
+        <v>0.86275870042779512</v>
       </c>
       <c r="K260" s="3">
-        <v>0.70430107526881724</v>
+        <v>0.78494623655913975</v>
       </c>
       <c r="L260" s="3">
-        <v>0.67592592592592593</v>
+        <v>0.797752808988764</v>
       </c>
       <c r="M260" s="3">
-        <v>0.78494623655913975</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="N260" s="3">
-        <v>0.72636815920398023</v>
+        <v>0.78021978021978022</v>
       </c>
       <c r="O260" t="s">
-        <v>453</v>
+        <v>28</v>
       </c>
       <c r="P260" s="3">
-        <f>ABS(D260-J260)</f>
-        <v>4.466104673311444E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2.2315852264791491E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>291</v>
       </c>
@@ -15378,110 +15400,110 @@
         <v>478</v>
       </c>
       <c r="P261" s="3">
-        <f>ABS(D261-J261)</f>
+        <f t="shared" si="4"/>
         <v>0.18106043133367022</v>
       </c>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="B262" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="C262" t="s">
         <v>19</v>
       </c>
       <c r="D262" s="3">
-        <v>0.65244959042218031</v>
+        <v>0.84768168452005876</v>
       </c>
       <c r="E262" s="3">
-        <v>0.60688405797101452</v>
+        <v>0.77536231884057971</v>
       </c>
       <c r="F262" s="3">
-        <v>0.57074340527577938</v>
+        <v>0.84862385321100919</v>
       </c>
       <c r="G262" s="3">
-        <v>0.8623188405797102</v>
+        <v>0.67028985507246375</v>
       </c>
       <c r="H262" s="3">
-        <v>0.68686868686868685</v>
+        <v>0.74898785425101211</v>
       </c>
       <c r="I262" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="J262" s="3">
-        <v>0.60405827263267431</v>
+        <v>0.84865302347092142</v>
       </c>
       <c r="K262" s="3">
-        <v>0.60752688172043012</v>
+        <v>0.80107526881720426</v>
       </c>
       <c r="L262" s="3">
-        <v>0.57042253521126762</v>
+        <v>0.85897435897435892</v>
       </c>
       <c r="M262" s="3">
-        <v>0.87096774193548387</v>
+        <v>0.72043010752688175</v>
       </c>
       <c r="N262" s="3">
-        <v>0.68936170212765957</v>
+        <v>0.78362573099415211</v>
       </c>
       <c r="O262" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P262" s="3">
-        <f>ABS(D262-J262)</f>
-        <v>4.8391317789506005E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.7133895086265465E-4</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="B263" t="s">
-        <v>470</v>
+        <v>407</v>
       </c>
       <c r="C263" t="s">
         <v>19</v>
       </c>
       <c r="D263" s="3">
-        <v>0.65244959042218031</v>
+        <v>0.84845620667926913</v>
       </c>
       <c r="E263" s="3">
-        <v>0.60688405797101452</v>
+        <v>0.77717391304347827</v>
       </c>
       <c r="F263" s="3">
-        <v>0.57074340527577938</v>
+        <v>0.84931506849315064</v>
       </c>
       <c r="G263" s="3">
-        <v>0.8623188405797102</v>
+        <v>0.67391304347826086</v>
       </c>
       <c r="H263" s="3">
-        <v>0.68686868686868685</v>
+        <v>0.75151515151515147</v>
       </c>
       <c r="I263" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="J263" s="3">
-        <v>0.60405827263267431</v>
+        <v>0.84749682044166963</v>
       </c>
       <c r="K263" s="3">
-        <v>0.60752688172043012</v>
+        <v>0.80107526881720426</v>
       </c>
       <c r="L263" s="3">
-        <v>0.57042253521126762</v>
+        <v>0.85</v>
       </c>
       <c r="M263" s="3">
-        <v>0.87096774193548387</v>
+        <v>0.73118279569892475</v>
       </c>
       <c r="N263" s="3">
-        <v>0.68936170212765957</v>
+        <v>0.78612716763005785</v>
       </c>
       <c r="O263" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="P263" s="3">
-        <f>ABS(D263-J263)</f>
-        <v>4.8391317789506005E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.5938623759950215E-4</v>
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.25">
@@ -15531,7 +15553,7 @@
         <v>31</v>
       </c>
       <c r="P264" s="3">
-        <f>ABS(D264-J264)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15582,7 +15604,7 @@
         <v>31</v>
       </c>
       <c r="P265" s="3">
-        <f>ABS(D265-J265)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15633,7 +15655,7 @@
         <v>31</v>
       </c>
       <c r="P266" s="3">
-        <f>ABS(D266-J266)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15684,7 +15706,7 @@
         <v>31</v>
       </c>
       <c r="P267" s="3">
-        <f>ABS(D267-J267)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15735,7 +15757,7 @@
         <v>31</v>
       </c>
       <c r="P268" s="3">
-        <f>ABS(D268-J268)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15786,7 +15808,7 @@
         <v>134</v>
       </c>
       <c r="P269" s="3">
-        <f>ABS(D269-J269)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15837,7 +15859,7 @@
         <v>31</v>
       </c>
       <c r="P270" s="3">
-        <f>ABS(D270-J270)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15888,7 +15910,7 @@
         <v>31</v>
       </c>
       <c r="P271" s="3">
-        <f>ABS(D271-J271)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15939,7 +15961,7 @@
         <v>31</v>
       </c>
       <c r="P272" s="3">
-        <f>ABS(D272-J272)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15990,7 +16012,7 @@
         <v>31</v>
       </c>
       <c r="P273" s="3">
-        <f>ABS(D273-J273)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16041,7 +16063,7 @@
         <v>31</v>
       </c>
       <c r="P274" s="3">
-        <f>ABS(D274-J274)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16092,7 +16114,7 @@
         <v>31</v>
       </c>
       <c r="P275" s="3">
-        <f>ABS(D275-J275)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16143,7 +16165,7 @@
         <v>134</v>
       </c>
       <c r="P276" s="3">
-        <f>ABS(D276-J276)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16194,7 +16216,7 @@
         <v>31</v>
       </c>
       <c r="P277" s="3">
-        <f>ABS(D277-J277)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16245,7 +16267,7 @@
         <v>134</v>
       </c>
       <c r="P278" s="3">
-        <f>ABS(D278-J278)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16296,7 +16318,7 @@
         <v>31</v>
       </c>
       <c r="P279" s="3">
-        <f>ABS(D279-J279)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16347,7 +16369,7 @@
         <v>31</v>
       </c>
       <c r="P280" s="3">
-        <f>ABS(D280-J280)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16398,7 +16420,7 @@
         <v>31</v>
       </c>
       <c r="P281" s="3">
-        <f>ABS(D281-J281)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16449,7 +16471,7 @@
         <v>31</v>
       </c>
       <c r="P282" s="3">
-        <f>ABS(D282-J282)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16500,7 +16522,7 @@
         <v>31</v>
       </c>
       <c r="P283" s="3">
-        <f>ABS(D283-J283)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16551,7 +16573,7 @@
         <v>31</v>
       </c>
       <c r="P284" s="3">
-        <f>ABS(D284-J284)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16602,7 +16624,7 @@
         <v>31</v>
       </c>
       <c r="P285" s="3">
-        <f>ABS(D285-J285)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16653,7 +16675,7 @@
         <v>31</v>
       </c>
       <c r="P286" s="3">
-        <f>ABS(D286-J286)</f>
+        <f t="shared" ref="P286:P301" si="5">ABS(D286-J286)</f>
         <v>0</v>
       </c>
     </row>
@@ -16704,7 +16726,7 @@
         <v>31</v>
       </c>
       <c r="P287" s="3">
-        <f>ABS(D287-J287)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16755,7 +16777,7 @@
         <v>134</v>
       </c>
       <c r="P288" s="3">
-        <f>ABS(D288-J288)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16806,7 +16828,7 @@
         <v>31</v>
       </c>
       <c r="P289" s="3">
-        <f>ABS(D289-J289)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16857,7 +16879,7 @@
         <v>31</v>
       </c>
       <c r="P290" s="3">
-        <f>ABS(D290-J290)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16908,7 +16930,7 @@
         <v>31</v>
       </c>
       <c r="P291" s="3">
-        <f>ABS(D291-J291)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16959,7 +16981,7 @@
         <v>31</v>
       </c>
       <c r="P292" s="3">
-        <f>ABS(D292-J292)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17010,7 +17032,7 @@
         <v>31</v>
       </c>
       <c r="P293" s="3">
-        <f>ABS(D293-J293)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17061,7 +17083,7 @@
         <v>134</v>
       </c>
       <c r="P294" s="3">
-        <f>ABS(D294-J294)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17112,7 +17134,7 @@
         <v>31</v>
       </c>
       <c r="P295" s="3">
-        <f>ABS(D295-J295)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17163,7 +17185,7 @@
         <v>31</v>
       </c>
       <c r="P296" s="3">
-        <f>ABS(D296-J296)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17214,7 +17236,7 @@
         <v>31</v>
       </c>
       <c r="P297" s="3">
-        <f>ABS(D297-J297)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17265,7 +17287,7 @@
         <v>31</v>
       </c>
       <c r="P298" s="3">
-        <f>ABS(D298-J298)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17316,7 +17338,7 @@
         <v>31</v>
       </c>
       <c r="P299" s="3">
-        <f>ABS(D299-J299)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17367,7 +17389,7 @@
         <v>31</v>
       </c>
       <c r="P300" s="3">
-        <f>ABS(D300-J300)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -17418,16 +17440,89 @@
         <v>31</v>
       </c>
       <c r="P301" s="3">
-        <f>ABS(D301-J301)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P301" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P301">
-      <sortCondition descending="1" ref="J1:J301"/>
+    <filterColumn colId="15">
+      <customFilters>
+        <customFilter operator="lessThanOrEqual" val="0.05"/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:P301">
+      <sortCondition sortBy="cellColor" ref="J1:J301" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3353C56F-0ACE-4FA1-AB07-0409CE5A0C31}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>